--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="158">
   <si>
     <t>Product Name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Epic Games</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
     <t>OGRE</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>P3D.in</t>
   </si>
   <si>
-    <t>App/PC/Web</t>
-  </si>
-  <si>
     <t>Meshmixer</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
   </si>
   <si>
     <t>PIXLR</t>
-  </si>
-  <si>
-    <t>App/Web</t>
   </si>
   <si>
     <t>Revit</t>
@@ -981,7 +972,7 @@
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1056,46 +1047,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
@@ -1103,97 +1094,97 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
@@ -1201,13 +1192,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1215,13 +1206,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1229,13 +1220,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1243,10 +1234,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1257,27 +1248,27 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1285,13 +1276,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1299,13 +1290,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1313,13 +1304,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -1327,13 +1318,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1341,13 +1332,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -1355,27 +1346,27 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1383,13 +1374,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1397,69 +1388,69 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -1467,55 +1458,55 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -1523,55 +1514,55 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>36</v>
@@ -1579,640 +1570,657 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>9</v>
@@ -2220,13 +2228,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>9</v>
@@ -2234,13 +2242,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>9</v>
@@ -2248,13 +2256,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>9</v>
@@ -2262,13 +2270,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>9</v>
@@ -2276,13 +2284,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>9</v>
@@ -2290,16 +2298,16 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>Product Name</t>
   </si>
@@ -136,6 +136,18 @@
     <t>Netfabb</t>
   </si>
   <si>
+    <t>PowerShape</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>Dreamcatcher</t>
+  </si>
+  <si>
+    <t>Dynamo</t>
+  </si>
+  <si>
     <t>Form-Z Pro</t>
   </si>
   <si>
@@ -374,6 +386,9 @@
   </si>
   <si>
     <t>Robert McNeel &amp; Associates</t>
+  </si>
+  <si>
+    <t>Grasshopper</t>
   </si>
   <si>
     <t>PhiloGL</t>
@@ -491,13 +506,20 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Corbel"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -509,8 +531,9 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Corbel"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -981,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,159 +1022,165 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,9 +1240,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C96" totalsRowShown="0">
-  <autoFilter ref="A1:C96"/>
-  <sortState ref="A2:C96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101"/>
+  <sortState ref="A2:C101">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="3">
@@ -1483,1117 +1512,1172 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5714285714286" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="42.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="7" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="3" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="6" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="3" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="3" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="3" t="s">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C89" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="4" t="s">
+      <c r="C92" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="4" t="s">
+      <c r="B94" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C98" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A70" r:id="rId2" display="PlayCanvas"/>
-    <hyperlink ref="A92" r:id="rId3" display="Turbulenz"/>
-    <hyperlink ref="A37" r:id="rId4" display="D3"/>
-    <hyperlink ref="A67" r:id="rId5" display="OSG.JS"/>
-    <hyperlink ref="A76" r:id="rId6" display="PhiloGL"/>
-    <hyperlink ref="A88" r:id="rId7" display="Three.js"/>
-    <hyperlink ref="A31" r:id="rId8" display="Babylon.js"/>
-    <hyperlink ref="A72" r:id="rId9" display="Processing"/>
-    <hyperlink ref="A40" r:id="rId10" display="Echarts"/>
-    <hyperlink ref="A58" r:id="rId11" display="Timeline"/>
-    <hyperlink ref="A74" r:id="rId12" display="JointJS"/>
-    <hyperlink ref="A51" r:id="rId13" display="Heatmap.js"/>
-    <hyperlink ref="A55" r:id="rId14" display="VTK"/>
-    <hyperlink ref="A56" r:id="rId15" display="ParaView"/>
-    <hyperlink ref="A57" r:id="rId16" display="ITK"/>
-    <hyperlink ref="A59" r:id="rId17" display="Visit"/>
-    <hyperlink ref="A71" r:id="rId18" display="PCL"/>
-    <hyperlink ref="A33" r:id="rId19" display="Cl3ver"/>
-    <hyperlink ref="A87" r:id="rId20" display="HOOPS"/>
-    <hyperlink ref="A85" r:id="rId21" display="GrabCAD"/>
-    <hyperlink ref="A81" r:id="rId22" display="SketchFab"/>
-    <hyperlink ref="A50" r:id="rId23" display="P3D.in"/>
-    <hyperlink ref="A91" r:id="rId24" display="Blend4Web"/>
-    <hyperlink ref="A42" r:id="rId25" display="Clara.io"/>
-    <hyperlink ref="A86" r:id="rId26" display="Lagoa"/>
+    <hyperlink ref="A74" r:id="rId2" display="PlayCanvas"/>
+    <hyperlink ref="A97" r:id="rId3" display="Turbulenz"/>
+    <hyperlink ref="A41" r:id="rId4" display="D3"/>
+    <hyperlink ref="A71" r:id="rId5" display="OSG.JS"/>
+    <hyperlink ref="A81" r:id="rId6" display="PhiloGL"/>
+    <hyperlink ref="A93" r:id="rId7" display="Three.js"/>
+    <hyperlink ref="A35" r:id="rId8" display="Babylon.js"/>
+    <hyperlink ref="A76" r:id="rId9" display="Processing"/>
+    <hyperlink ref="A44" r:id="rId10" display="Echarts"/>
+    <hyperlink ref="A62" r:id="rId11" display="Timeline"/>
+    <hyperlink ref="A78" r:id="rId12" display="JointJS"/>
+    <hyperlink ref="A55" r:id="rId13" display="Heatmap.js"/>
+    <hyperlink ref="A59" r:id="rId14" display="VTK"/>
+    <hyperlink ref="A60" r:id="rId15" display="ParaView"/>
+    <hyperlink ref="A61" r:id="rId16" display="ITK"/>
+    <hyperlink ref="A63" r:id="rId17" display="Visit"/>
+    <hyperlink ref="A75" r:id="rId18" display="PCL"/>
+    <hyperlink ref="A37" r:id="rId19" display="Cl3ver"/>
+    <hyperlink ref="A92" r:id="rId20" display="HOOPS"/>
+    <hyperlink ref="A90" r:id="rId21" display="GrabCAD"/>
+    <hyperlink ref="A86" r:id="rId22" display="SketchFab"/>
+    <hyperlink ref="A54" r:id="rId23" display="P3D.in"/>
+    <hyperlink ref="A96" r:id="rId24" display="Blend4Web"/>
+    <hyperlink ref="A46" r:id="rId25" display="Clara.io"/>
+    <hyperlink ref="A91" r:id="rId26" display="Lagoa"/>
     <hyperlink ref="A11" r:id="rId27" display="Meshmixer"/>
     <hyperlink ref="A12" r:id="rId28" display="Tinkercad"/>
     <hyperlink ref="A13" r:id="rId29" display="Shapeshifter"/>
-    <hyperlink ref="A47" r:id="rId30" display="ClayTools"/>
-    <hyperlink ref="A54" r:id="rId31" display="IronCAD"/>
-    <hyperlink ref="A73" r:id="rId32" display="PTC Creo"/>
+    <hyperlink ref="A51" r:id="rId30" display="ClayTools"/>
+    <hyperlink ref="A58" r:id="rId31" display="IronCAD"/>
+    <hyperlink ref="A77" r:id="rId32" display="PTC Creo"/>
     <hyperlink ref="A7" r:id="rId33" display="HomeByMe"/>
     <hyperlink ref="A6" r:id="rId34" display="Solidworks Visualization"/>
     <hyperlink ref="A5" r:id="rId35" display="3DXcite DELTAGEN"/>
     <hyperlink ref="A4" r:id="rId36" display="Solidworks"/>
     <hyperlink ref="A3" r:id="rId37" display="CATIA"/>
     <hyperlink ref="A2" r:id="rId38" display="DraftSight"/>
-    <hyperlink ref="A78" r:id="rId39" display="NX"/>
+    <hyperlink ref="A83" r:id="rId39" display="NX"/>
     <hyperlink ref="A26" r:id="rId40" display="VRED Professional"/>
     <hyperlink ref="A25" r:id="rId41" display="SketchBook Pro"/>
     <hyperlink ref="A24" r:id="rId42" display="Revit"/>
@@ -2607,55 +2691,58 @@
     <hyperlink ref="A16" r:id="rId50" display="AutoCAD Design Suite"/>
     <hyperlink ref="A14" r:id="rId51" display="3ds Max Design"/>
     <hyperlink ref="A15" r:id="rId52" display="Alias Design"/>
-    <hyperlink ref="A48" r:id="rId53" display="Freeform Plus"/>
-    <hyperlink ref="A49" r:id="rId54" display="DesignX"/>
-    <hyperlink ref="A68" r:id="rId55" display="Zbrush"/>
-    <hyperlink ref="A69" r:id="rId56" display="Sculptris"/>
-    <hyperlink ref="A43" r:id="rId57" display="Modo"/>
-    <hyperlink ref="A44" r:id="rId58" display="Nuke Studio"/>
-    <hyperlink ref="A45" r:id="rId59" display="Mari"/>
-    <hyperlink ref="A32" r:id="rId60" display="Blender"/>
-    <hyperlink ref="A52" r:id="rId61" display="PolyWorks"/>
-    <hyperlink ref="A38" r:id="rId62" display="Carrara Pro"/>
-    <hyperlink ref="A39" r:id="rId63" display="DAZ Studio Pro"/>
-    <hyperlink ref="A61" r:id="rId64" display="Cinema 4D Studio"/>
-    <hyperlink ref="A62" r:id="rId65" display="Body Paint"/>
+    <hyperlink ref="A52" r:id="rId53" display="Freeform Plus"/>
+    <hyperlink ref="A53" r:id="rId54" display="DesignX"/>
+    <hyperlink ref="A72" r:id="rId55" display="Zbrush"/>
+    <hyperlink ref="A73" r:id="rId56" display="Sculptris"/>
+    <hyperlink ref="A47" r:id="rId57" display="Modo"/>
+    <hyperlink ref="A48" r:id="rId58" display="Nuke Studio"/>
+    <hyperlink ref="A49" r:id="rId59" display="Mari"/>
+    <hyperlink ref="A36" r:id="rId60" display="Blender"/>
+    <hyperlink ref="A56" r:id="rId61" display="PolyWorks"/>
+    <hyperlink ref="A42" r:id="rId62" display="Carrara Pro"/>
+    <hyperlink ref="A43" r:id="rId63" display="DAZ Studio Pro"/>
+    <hyperlink ref="A65" r:id="rId64" display="Cinema 4D Studio"/>
+    <hyperlink ref="A66" r:id="rId65" display="Body Paint"/>
     <hyperlink ref="A9" r:id="rId66" display="Cobalt"/>
-    <hyperlink ref="A29" r:id="rId67" display="Form-Z Pro"/>
-    <hyperlink ref="A64" r:id="rId68" display="LightWave"/>
-    <hyperlink ref="A65" r:id="rId69" display="ChronoSculpt"/>
-    <hyperlink ref="A75" r:id="rId70" display="Rhino"/>
-    <hyperlink ref="A77" r:id="rId71" display="Shade 3D Pro"/>
-    <hyperlink ref="A63" r:id="rId72" display="Silo"/>
-    <hyperlink ref="A90" r:id="rId73" display="SketchUp"/>
-    <hyperlink ref="A83" r:id="rId74" display="Inspire"/>
-    <hyperlink ref="A84" r:id="rId75" display="Evolve"/>
-    <hyperlink ref="A35" r:id="rId76" display="VXmodel "/>
+    <hyperlink ref="A33" r:id="rId67" display="Form-Z Pro"/>
+    <hyperlink ref="A68" r:id="rId68" display="LightWave"/>
+    <hyperlink ref="A69" r:id="rId69" display="ChronoSculpt"/>
+    <hyperlink ref="A79" r:id="rId70" display="Rhino"/>
+    <hyperlink ref="A82" r:id="rId71" display="Shade 3D Pro"/>
+    <hyperlink ref="A67" r:id="rId72" display="Silo"/>
+    <hyperlink ref="A95" r:id="rId73" display="SketchUp"/>
+    <hyperlink ref="A88" r:id="rId74" display="Inspire"/>
+    <hyperlink ref="A89" r:id="rId75" display="Evolve"/>
+    <hyperlink ref="A39" r:id="rId76" display="VXmodel "/>
     <hyperlink ref="A27" r:id="rId77" display="Remake"/>
-    <hyperlink ref="A96" r:id="rId78" display="MeshLab"/>
+    <hyperlink ref="A101" r:id="rId78" display="MeshLab"/>
     <hyperlink ref="A28" r:id="rId79" display="Netfabb"/>
-    <hyperlink ref="A60" r:id="rId80" display="3D-matic"/>
-    <hyperlink ref="A53" r:id="rId81" display="3DReshaper"/>
-    <hyperlink ref="A93" r:id="rId82" display="Cura"/>
-    <hyperlink ref="A34" r:id="rId83" display="CraftWare"/>
-    <hyperlink ref="A46" r:id="rId84" display="FreeCAD"/>
-    <hyperlink ref="A80" r:id="rId85" display="Simplify3D"/>
-    <hyperlink ref="A82" r:id="rId86" display="Slic3r"/>
-    <hyperlink ref="A66" r:id="rId87" display="OnShape"/>
-    <hyperlink ref="A95" r:id="rId88" display="Vectary"/>
-    <hyperlink ref="A94" r:id="rId89" display="Unity Pro"/>
-    <hyperlink ref="A41" r:id="rId90" display="Unreal Engine"/>
+    <hyperlink ref="A64" r:id="rId80" display="3D-matic"/>
+    <hyperlink ref="A57" r:id="rId81" display="3DReshaper"/>
+    <hyperlink ref="A98" r:id="rId82" display="Cura"/>
+    <hyperlink ref="A38" r:id="rId83" display="CraftWare"/>
+    <hyperlink ref="A50" r:id="rId84" display="FreeCAD"/>
+    <hyperlink ref="A85" r:id="rId85" display="Simplify3D"/>
+    <hyperlink ref="A87" r:id="rId86" display="Slic3r"/>
+    <hyperlink ref="A70" r:id="rId87" display="OnShape"/>
+    <hyperlink ref="A100" r:id="rId88" display="Vectary"/>
+    <hyperlink ref="A99" r:id="rId89" display="Unity Pro"/>
+    <hyperlink ref="A45" r:id="rId90" display="Unreal Engine"/>
     <hyperlink ref="A10" r:id="rId91" display="Scaleform"/>
     <hyperlink ref="A8" r:id="rId92" display="Lumberyard"/>
-    <hyperlink ref="A89" r:id="rId93" display="OGRE"/>
-    <hyperlink ref="A30" r:id="rId94" display="Away3D"/>
-    <hyperlink ref="A79" r:id="rId95" display="SolidEdge 2D"/>
+    <hyperlink ref="A94" r:id="rId93" display="OGRE"/>
+    <hyperlink ref="A34" r:id="rId94" display="Away3D"/>
+    <hyperlink ref="A84" r:id="rId95" display="SolidEdge 2D"/>
+    <hyperlink ref="A29" r:id="rId96" display="PowerShape"/>
+    <hyperlink ref="A31" r:id="rId97" display="Dreamcatcher"/>
+    <hyperlink ref="A30" r:id="rId98" display="Within"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="1" scale="84" orientation="portrait"/>
   <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="44" max="16383" man="1"/>
+    <brk id="48" max="16383" man="1"/>
   </rowBreaks>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -10,14 +10,14 @@
     <sheet name="3D Tools" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3D Tools'!$A$1:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3D Tools'!$A$2:$I$117</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>Product Name</t>
   </si>
@@ -52,16 +52,25 @@
     <t>Parametric</t>
   </si>
   <si>
+    <t>3D Sprint</t>
+  </si>
+  <si>
+    <t>3D System</t>
+  </si>
+  <si>
+    <t>3D Printing</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>3D View/Build</t>
   </si>
   <si>
     <t>Microsoft</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>√</t>
+    <t>Model Viewer</t>
   </si>
   <si>
     <t>3D-matic</t>
@@ -97,6 +106,9 @@
     <t>Scene Composer</t>
   </si>
   <si>
+    <t>3DXpert</t>
+  </si>
+  <si>
     <t>Alias Design</t>
   </si>
   <si>
@@ -151,6 +163,9 @@
     <t>NewTek</t>
   </si>
   <si>
+    <t>CimatronE</t>
+  </si>
+  <si>
     <t>Cinema 4D Studio</t>
   </si>
   <si>
@@ -166,54 +181,48 @@
     <t>Exocortex Technologies</t>
   </si>
   <si>
-    <t>ClayTools</t>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Ashlar-Vellum</t>
+  </si>
+  <si>
+    <t>CraftWare</t>
+  </si>
+  <si>
+    <t>Craft Unique</t>
+  </si>
+  <si>
+    <t>CryEngine</t>
+  </si>
+  <si>
+    <t>Crytek</t>
+  </si>
+  <si>
+    <t>Cura</t>
+  </si>
+  <si>
+    <t>Ultimaker</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D3JS</t>
+  </si>
+  <si>
+    <t>SVG Library</t>
+  </si>
+  <si>
+    <t>DAZ Studio Pro</t>
+  </si>
+  <si>
+    <t>DesignX</t>
   </si>
   <si>
     <t xml:space="preserve">Geomagic  </t>
   </si>
   <si>
-    <t>Cobalt</t>
-  </si>
-  <si>
-    <t>Ashlar-Vellum</t>
-  </si>
-  <si>
-    <t>CraftWare</t>
-  </si>
-  <si>
-    <t>Craft Unique</t>
-  </si>
-  <si>
-    <t>3D Printing</t>
-  </si>
-  <si>
-    <t>CryEngine</t>
-  </si>
-  <si>
-    <t>Crytek</t>
-  </si>
-  <si>
-    <t>Cura</t>
-  </si>
-  <si>
-    <t>Ultimaker</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D3JS</t>
-  </si>
-  <si>
-    <t>SVG Library</t>
-  </si>
-  <si>
-    <t>DAZ Studio Pro</t>
-  </si>
-  <si>
-    <t>DesignX</t>
-  </si>
-  <si>
     <t>DraftSight</t>
   </si>
   <si>
@@ -247,7 +256,7 @@
     <t>FreeCAD</t>
   </si>
   <si>
-    <t>Freeform Plus</t>
+    <t>Freeform</t>
   </si>
   <si>
     <t>Fusion 360</t>
@@ -259,9 +268,6 @@
     <t>Stratasys</t>
   </si>
   <si>
-    <t>Model Viewer</t>
-  </si>
-  <si>
     <t>Grasshopper</t>
   </si>
   <si>
@@ -301,6 +307,12 @@
     <t>Image Library</t>
   </si>
   <si>
+    <t>itSeez3D</t>
+  </si>
+  <si>
+    <t>Photogrammetry</t>
+  </si>
+  <si>
     <t>JointJS</t>
   </si>
   <si>
@@ -397,6 +409,12 @@
     <t>Sencha</t>
   </si>
   <si>
+    <t>Photoscan</t>
+  </si>
+  <si>
+    <t>Agisoft</t>
+  </si>
+  <si>
     <t>PIXLR</t>
   </si>
   <si>
@@ -424,12 +442,15 @@
     <t>PTC</t>
   </si>
   <si>
+    <t>RealityCapture</t>
+  </si>
+  <si>
+    <t>CapturingReality</t>
+  </si>
+  <si>
     <t>Recap</t>
   </si>
   <si>
-    <t>Photogrammetry</t>
-  </si>
-  <si>
     <t>Remake</t>
   </si>
   <si>
@@ -445,6 +466,18 @@
     <t>Scaleform</t>
   </si>
   <si>
+    <t>Scandy</t>
+  </si>
+  <si>
+    <t>Scann3D</t>
+  </si>
+  <si>
+    <t>SmartMobileVision</t>
+  </si>
+  <si>
+    <t>Sculpt</t>
+  </si>
+  <si>
     <t>Sculptris</t>
   </si>
   <si>
@@ -493,6 +526,12 @@
     <t>Solidworks Visualization</t>
   </si>
   <si>
+    <t>Source SDK</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
     <t>Three.js</t>
   </si>
   <si>
@@ -505,6 +544,9 @@
     <t>Tinkercad</t>
   </si>
   <si>
+    <t>Trimensional</t>
+  </si>
+  <si>
     <t>Turbulenz</t>
   </si>
   <si>
@@ -538,13 +580,31 @@
     <t xml:space="preserve">VXmodel </t>
   </si>
   <si>
-    <t>CREATFORM</t>
+    <t>Createform</t>
   </si>
   <si>
     <t>Within</t>
   </si>
   <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>XYZMaker</t>
+  </si>
+  <si>
+    <t>XYZPrinting</t>
+  </si>
+  <si>
+    <t>XYZPhoto</t>
+  </si>
+  <si>
     <t>Zbrush</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>3DFlow</t>
   </si>
 </sst>
 </file>
@@ -585,9 +645,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,39 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +692,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,43 +707,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -716,6 +723,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -723,7 +751,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,7 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +834,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,37 +954,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,115 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,30 +1028,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1007,6 +1043,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1018,6 +1072,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,28 +1105,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,130 +1148,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1560,14 +1620,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B102" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomRight" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1657,12 +1717,12 @@
         <v>17</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9">
@@ -1673,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1681,29 +1741,27 @@
       <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
@@ -1716,97 +1774,103 @@
         <v>25</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
+      <c r="A10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1816,35 +1880,31 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5"/>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
+      <c r="A14" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1858,10 +1918,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7" t="s">
@@ -1872,45 +1932,41 @@
       <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="7" t="s">
         <v>14</v>
       </c>
@@ -1918,60 +1974,64 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1980,17 +2040,17 @@
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
@@ -1998,129 +2058,133 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="I23" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="I24" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
-        <v>63</v>
+      <c r="A27" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9">
@@ -2128,10 +2192,10 @@
         <v>65</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2142,21 +2206,23 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
         <v>14</v>
       </c>
@@ -2166,48 +2232,52 @@
         <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>70</v>
+      <c r="B32" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="I32" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>14</v>
@@ -2221,35 +2291,31 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>74</v>
+      <c r="B34" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="9" t="s">
-        <v>75</v>
+      <c r="A35" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>14</v>
@@ -2267,10 +2333,10 @@
         <v>76</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2284,79 +2350,83 @@
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4" t="s">
-        <v>77</v>
+      <c r="A37" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="C40" s="5" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2370,27 +2440,31 @@
         <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>21</v>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2404,10 +2478,10 @@
         <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2418,132 +2492,132 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H46" s="8"/>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>95</v>
+      <c r="A48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="4" t="s">
-        <v>96</v>
+      <c r="A49" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D50" s="5"/>
-      <c r="E50" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
+      <c r="G50" s="6"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
@@ -2551,30 +2625,30 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="C51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="C52" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2585,61 +2659,57 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="H53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="6"/>
+      <c r="C54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="6"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9">
@@ -2647,52 +2717,50 @@
         <v>107</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D57" s="5"/>
-      <c r="E57" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="6"/>
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2705,110 +2773,116 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="H59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>115</v>
+      <c r="B62" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
+      <c r="C63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="I63" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="C64" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
@@ -2818,107 +2892,109 @@
         <v>119</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="I65" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="A67" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="8"/>
+      <c r="A68" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="6"/>
+      <c r="C70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9">
@@ -2926,31 +3002,29 @@
         <v>130</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="A72" s="4" t="s">
         <v>132</v>
       </c>
+      <c r="B72" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="C72" s="5" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2960,82 +3034,78 @@
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="A73" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="B73" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
+      <c r="G74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="6"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C76" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="4" t="s">
@@ -3045,7 +3115,7 @@
         <v>140</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>14</v>
@@ -3053,7 +3123,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
+      <c r="H77" s="7"/>
       <c r="I77" s="7" t="s">
         <v>14</v>
       </c>
@@ -3063,37 +3133,37 @@
         <v>141</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
+      <c r="G78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="7"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
@@ -3101,38 +3171,36 @@
         <v>144</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="6"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E81" s="5"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="7" t="s">
         <v>14</v>
@@ -3140,34 +3208,34 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="C82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="7"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="9" t="s">
-        <v>149</v>
+      <c r="A83" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3178,36 +3246,40 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F84" s="5"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="7"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+      <c r="E85" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F85" s="5"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9">
@@ -3215,72 +3287,80 @@
         <v>152</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="E87" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F87" s="5"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="B88" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="5"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="H88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="9" t="s">
-        <v>156</v>
+      <c r="A89" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="8"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="H89" s="8"/>
       <c r="I89" s="7" t="s">
         <v>14</v>
@@ -3288,182 +3368,196 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="H90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>160</v>
+      <c r="A92" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F92" s="5"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="I92" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
+      <c r="A94" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="I94" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="4" t="s">
-        <v>163</v>
+      <c r="A95" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="8"/>
+      <c r="G95" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="I96" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>167</v>
+      <c r="B97" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="C99" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9">
@@ -3471,37 +3565,33 @@
         <v>171</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="6"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9">
@@ -3509,29 +3599,31 @@
         <v>174</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G102" s="8"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="I102" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="6" t="s">
@@ -3539,13 +3631,281 @@
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="H103" s="7"/>
       <c r="I103" s="8"/>
     </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="6"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="6"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="6"/>
+      <c r="I117" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I103"/>
+  <autoFilter ref="A2:I117">
+    <sortState ref="A3:I117">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A3:I103">
     <sortCondition ref="A3:A103"/>
   </sortState>
@@ -3557,103 +3917,110 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A69" r:id="rId1" display="PlayCanvas"/>
-    <hyperlink ref="A94" r:id="rId2" display="Turbulenz"/>
-    <hyperlink ref="A26" r:id="rId3" display="D3"/>
-    <hyperlink ref="A63" r:id="rId4" display="OSG.JS"/>
-    <hyperlink ref="A67" r:id="rId5" display="PhiloGL"/>
-    <hyperlink ref="A91" r:id="rId6" display="Three.js"/>
-    <hyperlink ref="A11" r:id="rId7" display="Babylon.js"/>
-    <hyperlink ref="A72" r:id="rId8" display="Processing"/>
-    <hyperlink ref="A32" r:id="rId9" display="Echarts"/>
-    <hyperlink ref="A92" r:id="rId10" display="Timeline"/>
-    <hyperlink ref="A48" r:id="rId11" display="JointJS"/>
-    <hyperlink ref="A40" r:id="rId12" display="Heatmap.js"/>
-    <hyperlink ref="A100" r:id="rId13" display="VTK"/>
-    <hyperlink ref="A65" r:id="rId14" display="ParaView"/>
-    <hyperlink ref="A47" r:id="rId15" display="ITK"/>
-    <hyperlink ref="A98" r:id="rId16" display="Visit"/>
-    <hyperlink ref="A66" r:id="rId17" display="PCL"/>
-    <hyperlink ref="A19" r:id="rId18" display="Cl3ver"/>
-    <hyperlink ref="A43" r:id="rId19" display="HOOPS"/>
-    <hyperlink ref="A38" r:id="rId20" display="GrabCAD"/>
-    <hyperlink ref="A85" r:id="rId21" display="SketchFab"/>
-    <hyperlink ref="A64" r:id="rId22" display="P3D.in"/>
-    <hyperlink ref="A12" r:id="rId23" display="Blend4Web"/>
-    <hyperlink ref="A20" r:id="rId24" display="Clara.io"/>
-    <hyperlink ref="A49" r:id="rId25" display="Lagoa"/>
-    <hyperlink ref="A55" r:id="rId26" display="Meshmixer"/>
-    <hyperlink ref="A93" r:id="rId27" display="Tinkercad"/>
-    <hyperlink ref="A81" r:id="rId28" display="Shapeshifter"/>
-    <hyperlink ref="A21" r:id="rId29" display="ClayTools"/>
-    <hyperlink ref="A46" r:id="rId30" display="IronCAD"/>
-    <hyperlink ref="A73" r:id="rId31" display="PTC Creo"/>
-    <hyperlink ref="A41" r:id="rId32" display="HomeByMe"/>
-    <hyperlink ref="A90" r:id="rId33" display="Solidworks Visualization"/>
-    <hyperlink ref="A7" r:id="rId34" display="3DXcite DELTAGEN"/>
-    <hyperlink ref="A89" r:id="rId35" display="Solidworks"/>
-    <hyperlink ref="A16" r:id="rId36" display="CATIA"/>
-    <hyperlink ref="A29" r:id="rId37" display="DraftSight"/>
-    <hyperlink ref="A60" r:id="rId38" display="NX"/>
-    <hyperlink ref="A99" r:id="rId39" display="VRED Professional"/>
-    <hyperlink ref="A84" r:id="rId40" display="SketchBook Pro"/>
-    <hyperlink ref="A76" r:id="rId41" display="Revit"/>
-    <hyperlink ref="A68" r:id="rId42" display="PIXLR"/>
-    <hyperlink ref="A74" r:id="rId43" display="Recap"/>
-    <hyperlink ref="A57" r:id="rId44" display="Mudbox"/>
-    <hyperlink ref="A53" r:id="rId45" display="Maya"/>
-    <hyperlink ref="A45" r:id="rId46" display="Inventor"/>
-    <hyperlink ref="A42" r:id="rId47" display="Homestyler"/>
-    <hyperlink ref="A37" r:id="rId48" display="Fusion 360"/>
-    <hyperlink ref="A9" r:id="rId49" display="AutoCAD Design Suite"/>
-    <hyperlink ref="A6" r:id="rId50" display="3ds Max Design"/>
-    <hyperlink ref="A8" r:id="rId51" display="Alias Design"/>
-    <hyperlink ref="A36" r:id="rId52" display="Freeform Plus"/>
-    <hyperlink ref="A28" r:id="rId53" display="DesignX"/>
-    <hyperlink ref="A103" r:id="rId54" display="Zbrush"/>
-    <hyperlink ref="A79" r:id="rId55" display="Sculptris"/>
-    <hyperlink ref="A56" r:id="rId56" display="Modo"/>
-    <hyperlink ref="A59" r:id="rId57" display="Nuke Studio"/>
-    <hyperlink ref="A52" r:id="rId58" display="Mari"/>
-    <hyperlink ref="A13" r:id="rId59" display="Blender"/>
-    <hyperlink ref="A70" r:id="rId60" display="PolyWorks"/>
-    <hyperlink ref="A15" r:id="rId61" display="Carrara Pro"/>
-    <hyperlink ref="A27" r:id="rId62" display="DAZ Studio Pro"/>
-    <hyperlink ref="A18" r:id="rId63" display="Cinema 4D Studio"/>
-    <hyperlink ref="A14" r:id="rId64" display="Body Paint"/>
-    <hyperlink ref="A22" r:id="rId65" display="Cobalt"/>
-    <hyperlink ref="A34" r:id="rId66" display="Form-Z Pro"/>
-    <hyperlink ref="A50" r:id="rId67" display="LightWave"/>
-    <hyperlink ref="A17" r:id="rId68" display="ChronoSculpt"/>
-    <hyperlink ref="A77" r:id="rId69" display="Rhino"/>
-    <hyperlink ref="A80" r:id="rId70" display="Shade 3D Pro"/>
-    <hyperlink ref="A82" r:id="rId71" display="Silo"/>
-    <hyperlink ref="A86" r:id="rId72" display="SketchUp"/>
-    <hyperlink ref="A44" r:id="rId73" display="Inspire"/>
-    <hyperlink ref="A33" r:id="rId74" display="Evolve"/>
-    <hyperlink ref="A101" r:id="rId75" display="VXmodel "/>
-    <hyperlink ref="A75" r:id="rId76" display="Remake"/>
-    <hyperlink ref="A54" r:id="rId77" display="MeshLab"/>
-    <hyperlink ref="A58" r:id="rId78" display="Netfabb"/>
-    <hyperlink ref="A4" r:id="rId79" display="3D-matic"/>
-    <hyperlink ref="A5" r:id="rId80" display="3DReshaper"/>
-    <hyperlink ref="A25" r:id="rId81" display="Cura"/>
-    <hyperlink ref="A23" r:id="rId82" display="CraftWare"/>
-    <hyperlink ref="A35" r:id="rId83" display="FreeCAD"/>
-    <hyperlink ref="A83" r:id="rId84" display="Simplify3D"/>
-    <hyperlink ref="A87" r:id="rId85" display="Slic3r"/>
-    <hyperlink ref="A62" r:id="rId86" display="OnShape"/>
-    <hyperlink ref="A97" r:id="rId87" display="Vectary"/>
-    <hyperlink ref="A95" r:id="rId88" display="Unity Pro"/>
-    <hyperlink ref="A96" r:id="rId89" display="Unreal Engine"/>
-    <hyperlink ref="A78" r:id="rId90" display="Scaleform"/>
-    <hyperlink ref="A51" r:id="rId91" display="Lumberyard"/>
-    <hyperlink ref="A61" r:id="rId92" display="OGRE"/>
-    <hyperlink ref="A10" r:id="rId93" display="Away3D"/>
-    <hyperlink ref="A88" r:id="rId94" display="SolidEdge 2D"/>
-    <hyperlink ref="A71" r:id="rId95" display="PowerShape"/>
-    <hyperlink ref="A30" r:id="rId96" display="Dreamcatcher"/>
-    <hyperlink ref="A102" r:id="rId97" display="Within"/>
+    <hyperlink ref="A73" r:id="rId1" display="PlayCanvas"/>
+    <hyperlink ref="A104" r:id="rId2" display="Turbulenz"/>
+    <hyperlink ref="A28" r:id="rId3" display="D3"/>
+    <hyperlink ref="A66" r:id="rId4" display="OSG.JS"/>
+    <hyperlink ref="A70" r:id="rId5" display="PhiloGL"/>
+    <hyperlink ref="A100" r:id="rId6" display="Three.js"/>
+    <hyperlink ref="A13" r:id="rId7" display="Babylon.js"/>
+    <hyperlink ref="A76" r:id="rId8" display="Processing"/>
+    <hyperlink ref="A34" r:id="rId9" display="Echarts"/>
+    <hyperlink ref="A101" r:id="rId10" display="Timeline"/>
+    <hyperlink ref="A51" r:id="rId11" display="JointJS"/>
+    <hyperlink ref="A42" r:id="rId12" display="Heatmap.js"/>
+    <hyperlink ref="A110" r:id="rId13" display="VTK"/>
+    <hyperlink ref="A68" r:id="rId14" display="ParaView"/>
+    <hyperlink ref="A49" r:id="rId15" display="ITK"/>
+    <hyperlink ref="A108" r:id="rId16" display="Visit"/>
+    <hyperlink ref="A69" r:id="rId17" display="PCL"/>
+    <hyperlink ref="A22" r:id="rId18" display="Cl3ver"/>
+    <hyperlink ref="A45" r:id="rId19" display="HOOPS"/>
+    <hyperlink ref="A40" r:id="rId20" display="GrabCAD"/>
+    <hyperlink ref="A93" r:id="rId21" display="SketchFab"/>
+    <hyperlink ref="A67" r:id="rId22" display="P3D.in"/>
+    <hyperlink ref="A14" r:id="rId23" display="Blend4Web"/>
+    <hyperlink ref="A23" r:id="rId24" display="Clara.io"/>
+    <hyperlink ref="A52" r:id="rId25" display="Lagoa"/>
+    <hyperlink ref="A58" r:id="rId26" display="Meshmixer"/>
+    <hyperlink ref="A102" r:id="rId27" display="Tinkercad"/>
+    <hyperlink ref="A89" r:id="rId28" display="Shapeshifter"/>
+    <hyperlink ref="A86" r:id="rId29" display="Sculpt"/>
+    <hyperlink ref="A48" r:id="rId30" display="IronCAD"/>
+    <hyperlink ref="A77" r:id="rId31" display="PTC Creo"/>
+    <hyperlink ref="A43" r:id="rId32" display="HomeByMe"/>
+    <hyperlink ref="A98" r:id="rId33" display="Solidworks Visualization"/>
+    <hyperlink ref="A8" r:id="rId34" display="3DXcite DELTAGEN"/>
+    <hyperlink ref="A97" r:id="rId35" display="Solidworks"/>
+    <hyperlink ref="A18" r:id="rId36" display="CATIA"/>
+    <hyperlink ref="A31" r:id="rId37" display="DraftSight"/>
+    <hyperlink ref="A63" r:id="rId38" display="NX"/>
+    <hyperlink ref="A109" r:id="rId39" display="VRED Professional"/>
+    <hyperlink ref="A92" r:id="rId40" display="SketchBook Pro"/>
+    <hyperlink ref="A81" r:id="rId41" display="Revit"/>
+    <hyperlink ref="A72" r:id="rId42" display="PIXLR"/>
+    <hyperlink ref="A79" r:id="rId43" display="Recap"/>
+    <hyperlink ref="A60" r:id="rId44" display="Mudbox"/>
+    <hyperlink ref="A56" r:id="rId45" display="Maya"/>
+    <hyperlink ref="A47" r:id="rId46" display="Inventor"/>
+    <hyperlink ref="A44" r:id="rId47" display="Homestyler"/>
+    <hyperlink ref="A39" r:id="rId48" display="Fusion 360"/>
+    <hyperlink ref="A11" r:id="rId49" display="AutoCAD Design Suite"/>
+    <hyperlink ref="A7" r:id="rId50" display="3ds Max Design"/>
+    <hyperlink ref="A10" r:id="rId51" display="Alias Design"/>
+    <hyperlink ref="A38" r:id="rId52" display="Freeform"/>
+    <hyperlink ref="A30" r:id="rId53" display="DesignX"/>
+    <hyperlink ref="A116" r:id="rId54" display="Zbrush"/>
+    <hyperlink ref="A87" r:id="rId55" display="Sculptris"/>
+    <hyperlink ref="A59" r:id="rId56" display="Modo"/>
+    <hyperlink ref="A62" r:id="rId57" display="Nuke Studio"/>
+    <hyperlink ref="A55" r:id="rId58" display="Mari"/>
+    <hyperlink ref="A15" r:id="rId59" display="Blender"/>
+    <hyperlink ref="A74" r:id="rId60" display="PolyWorks"/>
+    <hyperlink ref="A17" r:id="rId61" display="Carrara Pro"/>
+    <hyperlink ref="A29" r:id="rId62" display="DAZ Studio Pro"/>
+    <hyperlink ref="A21" r:id="rId63" display="Cinema 4D Studio"/>
+    <hyperlink ref="A16" r:id="rId64" display="Body Paint"/>
+    <hyperlink ref="A24" r:id="rId65" display="Cobalt"/>
+    <hyperlink ref="A36" r:id="rId66" display="Form-Z Pro"/>
+    <hyperlink ref="A53" r:id="rId67" display="LightWave"/>
+    <hyperlink ref="A19" r:id="rId68" display="ChronoSculpt"/>
+    <hyperlink ref="A82" r:id="rId69" display="Rhino"/>
+    <hyperlink ref="A88" r:id="rId70" display="Shade 3D Pro"/>
+    <hyperlink ref="A90" r:id="rId71" display="Silo"/>
+    <hyperlink ref="A94" r:id="rId72" display="SketchUp"/>
+    <hyperlink ref="A46" r:id="rId73" display="Inspire"/>
+    <hyperlink ref="A35" r:id="rId74" display="Evolve"/>
+    <hyperlink ref="A111" r:id="rId75" display="VXmodel "/>
+    <hyperlink ref="A80" r:id="rId76" display="Remake"/>
+    <hyperlink ref="A57" r:id="rId77" display="MeshLab"/>
+    <hyperlink ref="A61" r:id="rId78" display="Netfabb"/>
+    <hyperlink ref="A5" r:id="rId79" display="3D-matic"/>
+    <hyperlink ref="A6" r:id="rId80" display="3DReshaper"/>
+    <hyperlink ref="A27" r:id="rId81" display="Cura"/>
+    <hyperlink ref="A25" r:id="rId82" display="CraftWare"/>
+    <hyperlink ref="A37" r:id="rId83" display="FreeCAD"/>
+    <hyperlink ref="A91" r:id="rId84" display="Simplify3D"/>
+    <hyperlink ref="A95" r:id="rId85" display="Slic3r"/>
+    <hyperlink ref="A65" r:id="rId86" display="OnShape"/>
+    <hyperlink ref="A107" r:id="rId87" display="Vectary"/>
+    <hyperlink ref="A105" r:id="rId88" display="Unity Pro"/>
+    <hyperlink ref="A106" r:id="rId89" display="Unreal Engine"/>
+    <hyperlink ref="A83" r:id="rId90" display="Scaleform"/>
+    <hyperlink ref="A54" r:id="rId91" display="Lumberyard"/>
+    <hyperlink ref="A64" r:id="rId92" display="OGRE"/>
+    <hyperlink ref="A12" r:id="rId93" display="Away3D"/>
+    <hyperlink ref="A96" r:id="rId94" display="SolidEdge 2D"/>
+    <hyperlink ref="A75" r:id="rId95" display="PowerShape"/>
+    <hyperlink ref="A32" r:id="rId96" display="Dreamcatcher"/>
+    <hyperlink ref="A112" r:id="rId97" display="Within"/>
+    <hyperlink ref="A71" r:id="rId98" display="Photoscan"/>
+    <hyperlink ref="A84" r:id="rId99" display="Scandy"/>
+    <hyperlink ref="A85" r:id="rId100" display="Scann3D"/>
+    <hyperlink ref="A103" r:id="rId101" display="Trimensional"/>
+    <hyperlink ref="A78" r:id="rId102" display="RealityCapture"/>
+    <hyperlink ref="A117" r:id="rId103" display="Zephyr"/>
+    <hyperlink ref="A99" r:id="rId104" display="Source SDK"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="224">
   <si>
     <t>Product Name</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>MakePrintable</t>
+  </si>
+  <si>
+    <t>Ime3D</t>
   </si>
 </sst>
 </file>
@@ -1113,13 +1116,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2154,53 +2157,57 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="2" t="s">
-        <v>97</v>
+      <c r="A53" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="H53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>26</v>
@@ -2217,160 +2224,162 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="A56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="I56" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>216</v>
+        <v>106</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>109</v>
+      <c r="A60" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>51</v>
+        <v>108</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="6"/>
-      <c r="H61" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="A62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
+      <c r="H62" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="7" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2382,87 +2391,87 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="2" t="s">
-        <v>115</v>
+      <c r="A65" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="7" t="s">
-        <v>117</v>
+      <c r="A66" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="2" t="s">
-        <v>119</v>
+      <c r="A67" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H67" s="6"/>
-      <c r="I67" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>20</v>
@@ -2478,31 +2487,29 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="4"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>26</v>
@@ -2512,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="3"/>
-      <c r="G71" s="4"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="5" t="s">
         <v>14</v>
       </c>
@@ -2520,165 +2527,167 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F72" s="3"/>
-      <c r="G72" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="G73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="4"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="A75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+      <c r="I75" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="I77" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="A78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="4" t="s">
         <v>14</v>
       </c>
@@ -2687,212 +2696,212 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="5"/>
+      <c r="A82" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="4"/>
+      <c r="A85" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="4"/>
-      <c r="I87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>152</v>
+      <c r="A88" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="G88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="4"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>154</v>
+      <c r="A89" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="6"/>
+      <c r="I90" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="E91" s="4"/>
       <c r="F91" s="3"/>
       <c r="G91" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="6"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>25</v>
@@ -2906,36 +2915,34 @@
       <c r="G92" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>26</v>
@@ -2953,46 +2960,48 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
+      <c r="I95" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D96" s="3"/>
-      <c r="E96" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>105</v>
@@ -3008,81 +3017,79 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="C99" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="3"/>
       <c r="G99" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="6"/>
+      <c r="H99" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="2" t="s">
-        <v>168</v>
+      <c r="A100" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G100" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="3"/>
-      <c r="G101" s="6"/>
+      <c r="G101" s="4"/>
       <c r="H101" s="5" t="s">
         <v>14</v>
       </c>
@@ -3090,606 +3097,608 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="3"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="7" t="s">
+      <c r="C104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="G105" s="6"/>
+      <c r="G105" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H105" s="6"/>
-      <c r="I105" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="E106" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+      <c r="I106" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="7" t="s">
-        <v>180</v>
+      <c r="A108" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="6"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="I108" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H109" s="6"/>
-      <c r="I109" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
-      <c r="I110" s="5" t="s">
+      <c r="I110" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="2" t="s">
-        <v>183</v>
+      <c r="A111" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
+      <c r="I111" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="A113" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>25</v>
+      <c r="A115" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
-      <c r="I115" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="7" t="s">
-        <v>190</v>
+      <c r="A116" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G116" s="6"/>
       <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
+      <c r="I116" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
-      <c r="F117" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" s="4"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="3"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="7" t="s">
+      <c r="D119" s="3"/>
+      <c r="E119" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B120" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C121" s="6" t="s">
+      <c r="A121" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>26</v>
+        <v>197</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A125" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+      <c r="A126" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
       <c r="G126" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H126" s="4"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="5"/>
+      <c r="E127" s="3"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="6"/>
-      <c r="I127" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G127" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="4"/>
+      <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D128" s="3"/>
-      <c r="E128" s="4"/>
+      <c r="E128" s="5"/>
       <c r="F128" s="3"/>
-      <c r="G128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128" s="4"/>
-      <c r="I128" s="6"/>
+      <c r="G128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="6"/>
+      <c r="I128" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="4"/>
+      <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="F130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="4"/>
       <c r="H130" s="5"/>
-      <c r="I130" s="6"/>
+      <c r="I130" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D131" s="3"/>
-      <c r="E131" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="E131" s="4"/>
       <c r="F131" s="3"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G131" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="5"/>
       <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="4"/>
-      <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -3697,13 +3706,32 @@
       <c r="G133" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H133" s="6"/>
+      <c r="H133" s="4"/>
       <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I133">
-    <sortState ref="A4:I133">
-      <sortCondition ref="A2:A128"/>
+    <sortState ref="A4:I134">
+      <sortCondition ref="A2:A133"/>
     </sortState>
   </autoFilter>
   <sortState ref="A3:I103">
@@ -3717,52 +3745,52 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A84" r:id="rId1"/>
-    <hyperlink ref="A119" r:id="rId2"/>
+    <hyperlink ref="A85" r:id="rId1"/>
+    <hyperlink ref="A120" r:id="rId2"/>
     <hyperlink ref="A32" r:id="rId3"/>
-    <hyperlink ref="A77" r:id="rId4"/>
-    <hyperlink ref="A81" r:id="rId5"/>
-    <hyperlink ref="A113" r:id="rId6"/>
+    <hyperlink ref="A78" r:id="rId4"/>
+    <hyperlink ref="A82" r:id="rId5"/>
+    <hyperlink ref="A114" r:id="rId6"/>
     <hyperlink ref="A15" r:id="rId7"/>
-    <hyperlink ref="A88" r:id="rId8"/>
+    <hyperlink ref="A89" r:id="rId8"/>
     <hyperlink ref="A39" r:id="rId9"/>
-    <hyperlink ref="A114" r:id="rId10"/>
-    <hyperlink ref="A58" r:id="rId11"/>
+    <hyperlink ref="A115" r:id="rId10"/>
+    <hyperlink ref="A59" r:id="rId11"/>
     <hyperlink ref="A48" r:id="rId12"/>
-    <hyperlink ref="A125" r:id="rId13"/>
-    <hyperlink ref="A79" r:id="rId14"/>
-    <hyperlink ref="A56" r:id="rId15"/>
-    <hyperlink ref="A123" r:id="rId16"/>
-    <hyperlink ref="A80" r:id="rId17"/>
+    <hyperlink ref="A126" r:id="rId13"/>
+    <hyperlink ref="A80" r:id="rId14"/>
+    <hyperlink ref="A57" r:id="rId15"/>
+    <hyperlink ref="A124" r:id="rId16"/>
+    <hyperlink ref="A81" r:id="rId17"/>
     <hyperlink ref="A26" r:id="rId18"/>
     <hyperlink ref="A51" r:id="rId19"/>
     <hyperlink ref="A46" r:id="rId20"/>
-    <hyperlink ref="A106" r:id="rId21"/>
-    <hyperlink ref="A78" r:id="rId22"/>
+    <hyperlink ref="A107" r:id="rId21"/>
+    <hyperlink ref="A79" r:id="rId22"/>
     <hyperlink ref="A16" r:id="rId23"/>
     <hyperlink ref="A27" r:id="rId24"/>
-    <hyperlink ref="A60" r:id="rId25"/>
-    <hyperlink ref="A69" r:id="rId26"/>
-    <hyperlink ref="A115" r:id="rId27"/>
-    <hyperlink ref="A102" r:id="rId28"/>
-    <hyperlink ref="A98" r:id="rId29"/>
-    <hyperlink ref="A55" r:id="rId30"/>
-    <hyperlink ref="A89" r:id="rId31"/>
+    <hyperlink ref="A61" r:id="rId25"/>
+    <hyperlink ref="A70" r:id="rId26"/>
+    <hyperlink ref="A116" r:id="rId27"/>
+    <hyperlink ref="A103" r:id="rId28"/>
+    <hyperlink ref="A99" r:id="rId29"/>
+    <hyperlink ref="A56" r:id="rId30"/>
+    <hyperlink ref="A90" r:id="rId31"/>
     <hyperlink ref="A49" r:id="rId32"/>
-    <hyperlink ref="A111" r:id="rId33"/>
+    <hyperlink ref="A112" r:id="rId33"/>
     <hyperlink ref="A9" r:id="rId34"/>
-    <hyperlink ref="A110" r:id="rId35"/>
+    <hyperlink ref="A111" r:id="rId35"/>
     <hyperlink ref="A21" r:id="rId36"/>
     <hyperlink ref="A36" r:id="rId37"/>
-    <hyperlink ref="A74" r:id="rId38"/>
-    <hyperlink ref="A124" r:id="rId39"/>
-    <hyperlink ref="A105" r:id="rId40"/>
-    <hyperlink ref="A93" r:id="rId41"/>
-    <hyperlink ref="A83" r:id="rId42"/>
-    <hyperlink ref="A91" r:id="rId43"/>
-    <hyperlink ref="A71" r:id="rId44"/>
-    <hyperlink ref="A67" r:id="rId45"/>
-    <hyperlink ref="A54" r:id="rId46"/>
+    <hyperlink ref="A75" r:id="rId38"/>
+    <hyperlink ref="A125" r:id="rId39"/>
+    <hyperlink ref="A106" r:id="rId40"/>
+    <hyperlink ref="A94" r:id="rId41"/>
+    <hyperlink ref="A84" r:id="rId42"/>
+    <hyperlink ref="A92" r:id="rId43"/>
+    <hyperlink ref="A72" r:id="rId44"/>
+    <hyperlink ref="A68" r:id="rId45"/>
+    <hyperlink ref="A55" r:id="rId46"/>
     <hyperlink ref="A50" r:id="rId47"/>
     <hyperlink ref="A45" r:id="rId48"/>
     <hyperlink ref="A13" r:id="rId49"/>
@@ -3770,73 +3798,74 @@
     <hyperlink ref="A11" r:id="rId51"/>
     <hyperlink ref="A44" r:id="rId52"/>
     <hyperlink ref="A35" r:id="rId53"/>
-    <hyperlink ref="A131" r:id="rId54"/>
-    <hyperlink ref="A100" r:id="rId55"/>
-    <hyperlink ref="A70" r:id="rId56"/>
-    <hyperlink ref="A73" r:id="rId57"/>
-    <hyperlink ref="A65" r:id="rId58"/>
+    <hyperlink ref="A132" r:id="rId54"/>
+    <hyperlink ref="A101" r:id="rId55"/>
+    <hyperlink ref="A71" r:id="rId56"/>
+    <hyperlink ref="A74" r:id="rId57"/>
+    <hyperlink ref="A66" r:id="rId58"/>
     <hyperlink ref="A17" r:id="rId59"/>
-    <hyperlink ref="A85" r:id="rId60"/>
+    <hyperlink ref="A86" r:id="rId60"/>
     <hyperlink ref="A20" r:id="rId61"/>
     <hyperlink ref="A33" r:id="rId62"/>
     <hyperlink ref="A25" r:id="rId63"/>
     <hyperlink ref="A19" r:id="rId64"/>
     <hyperlink ref="A28" r:id="rId65"/>
     <hyperlink ref="A42" r:id="rId66"/>
-    <hyperlink ref="A61" r:id="rId67"/>
+    <hyperlink ref="A62" r:id="rId67"/>
     <hyperlink ref="A23" r:id="rId68"/>
-    <hyperlink ref="A94" r:id="rId69"/>
-    <hyperlink ref="A101" r:id="rId70"/>
-    <hyperlink ref="A103" r:id="rId71"/>
-    <hyperlink ref="A107" r:id="rId72"/>
-    <hyperlink ref="A53" r:id="rId73"/>
+    <hyperlink ref="A95" r:id="rId69"/>
+    <hyperlink ref="A102" r:id="rId70"/>
+    <hyperlink ref="A104" r:id="rId71"/>
+    <hyperlink ref="A108" r:id="rId72"/>
+    <hyperlink ref="A54" r:id="rId73"/>
     <hyperlink ref="A40" r:id="rId74"/>
-    <hyperlink ref="A126" r:id="rId75"/>
-    <hyperlink ref="A92" r:id="rId76"/>
-    <hyperlink ref="A68" r:id="rId77"/>
-    <hyperlink ref="A72" r:id="rId78"/>
+    <hyperlink ref="A127" r:id="rId75"/>
+    <hyperlink ref="A93" r:id="rId76"/>
+    <hyperlink ref="A69" r:id="rId77"/>
+    <hyperlink ref="A73" r:id="rId78"/>
     <hyperlink ref="A5" r:id="rId79"/>
     <hyperlink ref="A7" r:id="rId80"/>
     <hyperlink ref="A31" r:id="rId81"/>
     <hyperlink ref="A29" r:id="rId82"/>
     <hyperlink ref="A43" r:id="rId83"/>
-    <hyperlink ref="A104" r:id="rId84"/>
-    <hyperlink ref="A108" r:id="rId85"/>
-    <hyperlink ref="A76" r:id="rId86"/>
-    <hyperlink ref="A122" r:id="rId87"/>
-    <hyperlink ref="A120" r:id="rId88"/>
-    <hyperlink ref="A121" r:id="rId89"/>
-    <hyperlink ref="A95" r:id="rId90"/>
-    <hyperlink ref="A62" r:id="rId91"/>
-    <hyperlink ref="A75" r:id="rId92"/>
+    <hyperlink ref="A105" r:id="rId84"/>
+    <hyperlink ref="A109" r:id="rId85"/>
+    <hyperlink ref="A77" r:id="rId86"/>
+    <hyperlink ref="A123" r:id="rId87"/>
+    <hyperlink ref="A121" r:id="rId88"/>
+    <hyperlink ref="A122" r:id="rId89"/>
+    <hyperlink ref="A96" r:id="rId90"/>
+    <hyperlink ref="A63" r:id="rId91"/>
+    <hyperlink ref="A76" r:id="rId92"/>
     <hyperlink ref="A14" r:id="rId93"/>
-    <hyperlink ref="A109" r:id="rId94"/>
-    <hyperlink ref="A86" r:id="rId95"/>
+    <hyperlink ref="A110" r:id="rId94"/>
+    <hyperlink ref="A87" r:id="rId95"/>
     <hyperlink ref="A37" r:id="rId96"/>
-    <hyperlink ref="A127" r:id="rId97"/>
-    <hyperlink ref="A82" r:id="rId98"/>
-    <hyperlink ref="A96" r:id="rId99"/>
-    <hyperlink ref="A97" r:id="rId100"/>
-    <hyperlink ref="A118" r:id="rId101"/>
-    <hyperlink ref="A90" r:id="rId102"/>
-    <hyperlink ref="A132" r:id="rId103"/>
-    <hyperlink ref="A112" r:id="rId104"/>
-    <hyperlink ref="A99" r:id="rId105"/>
-    <hyperlink ref="A87" r:id="rId106"/>
+    <hyperlink ref="A128" r:id="rId97"/>
+    <hyperlink ref="A83" r:id="rId98"/>
+    <hyperlink ref="A97" r:id="rId99"/>
+    <hyperlink ref="A98" r:id="rId100"/>
+    <hyperlink ref="A119" r:id="rId101"/>
+    <hyperlink ref="A91" r:id="rId102"/>
+    <hyperlink ref="A133" r:id="rId103"/>
+    <hyperlink ref="A113" r:id="rId104"/>
+    <hyperlink ref="A100" r:id="rId105"/>
+    <hyperlink ref="A88" r:id="rId106"/>
     <hyperlink ref="A6" r:id="rId107"/>
     <hyperlink ref="A12" r:id="rId108"/>
     <hyperlink ref="A52" r:id="rId109"/>
-    <hyperlink ref="A64" r:id="rId110"/>
-    <hyperlink ref="A66" r:id="rId111"/>
-    <hyperlink ref="A116" r:id="rId112"/>
-    <hyperlink ref="A133" r:id="rId113"/>
+    <hyperlink ref="A65" r:id="rId110"/>
+    <hyperlink ref="A67" r:id="rId111"/>
+    <hyperlink ref="A117" r:id="rId112"/>
+    <hyperlink ref="A134" r:id="rId113"/>
     <hyperlink ref="A22" r:id="rId114"/>
     <hyperlink ref="A34" r:id="rId115"/>
-    <hyperlink ref="A59" r:id="rId116"/>
+    <hyperlink ref="A60" r:id="rId116"/>
     <hyperlink ref="A41" r:id="rId117"/>
     <hyperlink ref="A18" r:id="rId118"/>
-    <hyperlink ref="A117" r:id="rId119"/>
-    <hyperlink ref="A63" r:id="rId120"/>
+    <hyperlink ref="A118" r:id="rId119"/>
+    <hyperlink ref="A64" r:id="rId120"/>
+    <hyperlink ref="A53" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -763,22 +763,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,25 +786,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,22 +801,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,37 +823,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,18 +868,48 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -940,13 +940,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1000,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,19 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +1066,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,61 +1096,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,37 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,6 +1152,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1176,17 +1191,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,8 +1203,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,21 +1249,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,136 +1272,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1427,8 +1430,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1743,15 +1752,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A141" sqref="A141"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1759,2733 +1768,2743 @@
     <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="20.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="8.14285714285714" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="8.85714285714286" customWidth="1"/>
-    <col min="7" max="7" width="6.28571428571429" customWidth="1"/>
+    <col min="4" max="4" width="8.14285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28571428571429" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.28571428571429" customWidth="1"/>
     <col min="9" max="9" width="11.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+    <row r="3" hidden="1" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" hidden="1" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" hidden="1" spans="1:9">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" hidden="1" spans="1:9">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" hidden="1" spans="1:9">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" hidden="1" spans="1:9">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:9">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" hidden="1" spans="1:9">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" hidden="1" spans="1:9">
+      <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:9">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" hidden="1" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" hidden="1" spans="1:9">
+      <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" hidden="1" spans="1:9">
+      <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8" t="s">
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" hidden="1" spans="1:9">
+      <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" hidden="1" spans="1:9">
+      <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" hidden="1" spans="1:9">
+      <c r="A22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7" t="s">
+      <c r="C22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="9"/>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4" t="s">
+      <c r="C24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" hidden="1" spans="1:9">
+      <c r="A25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="9" t="s">
+      <c r="C25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" hidden="1" spans="1:9">
+      <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" hidden="1" spans="1:9">
+      <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4" t="s">
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:9">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="8" t="s">
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:9">
+      <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" hidden="1" spans="1:9">
+      <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" hidden="1" spans="1:9">
+      <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="8" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" hidden="1" spans="1:9">
+      <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="4" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" hidden="1" spans="1:9">
+      <c r="A34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="4" t="s">
+      <c r="C35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:9">
+      <c r="A36" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="4" t="s">
+      <c r="C36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:9">
+      <c r="A37" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4" t="s">
+      <c r="D37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:9">
+      <c r="A38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="4" t="s">
+      <c r="C38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:9">
+      <c r="A39" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" hidden="1" spans="1:9">
+      <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" hidden="1" spans="1:9">
+      <c r="A41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="8" t="s">
+      <c r="C41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:9">
+      <c r="A42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="4" t="s">
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" hidden="1" spans="1:9">
+      <c r="A43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="8" t="s">
+      <c r="C43" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" hidden="1" spans="1:9">
+      <c r="A44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7" t="s">
+      <c r="C44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7" t="s">
+      <c r="C45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4" t="s">
+      <c r="C46" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:9">
+      <c r="A47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="4" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" hidden="1" spans="1:9">
+      <c r="A48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="8" t="s">
+      <c r="D48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:9">
+      <c r="A49" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="4" t="s">
+      <c r="C50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" hidden="1" spans="1:9">
+      <c r="A51" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="4" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" hidden="1" spans="1:9">
+      <c r="A52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="4" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" hidden="1" spans="1:9">
+      <c r="A53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="8" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" hidden="1" spans="1:9">
+      <c r="A54" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="8" t="s">
+      <c r="C55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" hidden="1" spans="1:9">
+      <c r="A56" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="8" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" hidden="1" spans="1:9">
+      <c r="A57" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4" t="s">
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" hidden="1" spans="1:9">
+      <c r="A58" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" hidden="1" spans="1:9">
+      <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4" t="s">
+      <c r="C59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:9">
+      <c r="A60" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="8" t="s">
+      <c r="C60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="1:9">
+      <c r="A61" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="4" t="s">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" hidden="1" spans="1:9">
+      <c r="A62" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="8" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" hidden="1" spans="1:9">
+      <c r="A63" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="8" t="s">
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" hidden="1" spans="1:9">
+      <c r="A64" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="4" t="s">
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" hidden="1" spans="1:9">
+      <c r="A65" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="8" t="s">
+      <c r="C66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" hidden="1" spans="1:9">
+      <c r="A67" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="8" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" hidden="1" spans="1:9">
+      <c r="A68" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="8" t="s">
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" hidden="1" spans="1:9">
+      <c r="A69" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="4" t="s">
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" hidden="1" spans="1:9">
+      <c r="A70" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="8" t="s">
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" hidden="1" spans="1:9">
+      <c r="A71" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="4" t="s">
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+    </row>
+    <row r="72" hidden="1" spans="1:9">
+      <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="4" t="s">
+      <c r="C72" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" hidden="1" spans="1:9">
+      <c r="A73" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="4" t="s">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" hidden="1" spans="1:9">
+      <c r="A74" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="9"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="9"/>
+      <c r="C75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="4" t="s">
+      <c r="C76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="11"/>
+    </row>
+    <row r="77" hidden="1" spans="1:9">
+      <c r="A77" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="4" t="s">
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="7"/>
+      <c r="I77" s="11"/>
+    </row>
+    <row r="78" hidden="1" spans="1:9">
+      <c r="A78" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="4" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+    </row>
+    <row r="79" hidden="1" spans="1:9">
+      <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="8" t="s">
+      <c r="C79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:9">
+      <c r="A80" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="8" t="s">
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+    </row>
+    <row r="81" hidden="1" spans="1:9">
+      <c r="A81" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="8" t="s">
+      <c r="C81" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" hidden="1" spans="1:9">
+      <c r="A82" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="4" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" hidden="1" spans="1:9">
+      <c r="A83" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="8" t="s">
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+    </row>
+    <row r="84" hidden="1" spans="1:9">
+      <c r="A84" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="8" t="s">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="85" hidden="1" spans="1:9">
+      <c r="A85" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="8" t="s">
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" hidden="1" spans="1:9">
+      <c r="A86" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="4" t="s">
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" hidden="1" spans="1:9">
+      <c r="A87" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="4" t="s">
+      <c r="D87" s="6"/>
+      <c r="E87" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="11"/>
+    </row>
+    <row r="88" hidden="1" spans="1:9">
+      <c r="A88" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="8" t="s">
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+    </row>
+    <row r="89" hidden="1" spans="1:9">
+      <c r="A89" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="4" t="s">
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" hidden="1" spans="1:9">
+      <c r="A90" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="4" t="s">
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" hidden="1" spans="1:9">
+      <c r="A91" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="4" t="s">
+      <c r="C91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" hidden="1" spans="1:9">
+      <c r="A92" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="8" t="s">
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="7"/>
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" hidden="1" spans="1:9">
+      <c r="A93" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="4" t="s">
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" hidden="1" spans="1:9">
+      <c r="A94" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="4" t="s">
+      <c r="C94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" hidden="1" spans="1:9">
+      <c r="A95" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="4" t="s">
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="8"/>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" hidden="1" spans="1:9">
+      <c r="A96" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="4" t="s">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" hidden="1" spans="1:9">
+      <c r="A97" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="4" t="s">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" hidden="1" spans="1:9">
+      <c r="A98" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="4" t="s">
+      <c r="C98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:9">
+      <c r="A99" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="4" t="s">
+      <c r="C99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:9">
+      <c r="A100" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="4" t="s">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" hidden="1" spans="1:9">
+      <c r="A101" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="4" t="s">
+      <c r="D101" s="6"/>
+      <c r="E101" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" hidden="1" spans="1:9">
+      <c r="A102" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="4" t="s">
+      <c r="D102" s="6"/>
+      <c r="E102" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" hidden="1" spans="1:9">
+      <c r="A103" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="9"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="8" t="s">
+      <c r="C103" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" hidden="1" spans="1:9">
+      <c r="A104" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" s="5"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="9"/>
+      <c r="C105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="5"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="9"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="4" t="s">
+      <c r="C106" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" hidden="1" spans="1:9">
+      <c r="A107" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="9"/>
-      <c r="I107" s="7" t="s">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" s="5"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="8" t="s">
+      <c r="C108" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" hidden="1" spans="1:9">
+      <c r="A109" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="4" t="s">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" hidden="1" spans="1:9">
+      <c r="A110" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="4" t="s">
+      <c r="D110" s="6"/>
+      <c r="E110" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="6"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" hidden="1" spans="1:9">
+      <c r="A111" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="4" t="s">
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+    </row>
+    <row r="112" hidden="1" spans="1:9">
+      <c r="A112" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="8" t="s">
+      <c r="C112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="12"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:9">
+      <c r="A113" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="8" t="s">
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" hidden="1" spans="1:9">
+      <c r="A114" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="8" t="s">
+      <c r="D114" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" hidden="1" spans="1:9">
+      <c r="A115" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="4" t="s">
+      <c r="C115" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" hidden="1" spans="1:9">
+      <c r="A116" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="4" t="s">
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+    </row>
+    <row r="117" hidden="1" spans="1:9">
+      <c r="A117" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="9"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="8" t="s">
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="11"/>
+    </row>
+    <row r="118" hidden="1" spans="1:9">
+      <c r="A118" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="8" t="s">
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+    </row>
+    <row r="119" hidden="1" spans="1:9">
+      <c r="A119" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="8" t="s">
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+    </row>
+    <row r="120" hidden="1" spans="1:9">
+      <c r="A120" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="4" t="s">
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+    </row>
+    <row r="121" hidden="1" spans="1:9">
+      <c r="A121" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="8" t="s">
+      <c r="C121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" hidden="1" spans="1:9">
+      <c r="A122" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="8" t="s">
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+    </row>
+    <row r="123" hidden="1" spans="1:9">
+      <c r="A123" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="4" t="s">
+      <c r="C123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+    </row>
+    <row r="124" hidden="1" spans="1:9">
+      <c r="A124" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="9"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="8" t="s">
+      <c r="D124" s="6"/>
+      <c r="E124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="11"/>
+    </row>
+    <row r="125" hidden="1" spans="1:9">
+      <c r="A125" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="4" t="s">
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+    </row>
+    <row r="126" hidden="1" spans="1:9">
+      <c r="A126" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="8" t="s">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+    </row>
+    <row r="127" hidden="1" spans="1:9">
+      <c r="A127" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" s="9"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="8" t="s">
+      <c r="C128" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="12"/>
+      <c r="E128" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="11"/>
+    </row>
+    <row r="129" hidden="1" spans="1:9">
+      <c r="A129" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="8" t="s">
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+    </row>
+    <row r="130" hidden="1" spans="1:9">
+      <c r="A130" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="4" t="s">
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+    </row>
+    <row r="131" hidden="1" spans="1:9">
+      <c r="A131" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="8" t="s">
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+    </row>
+    <row r="132" hidden="1" spans="1:9">
+      <c r="A132" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="4" t="s">
+      <c r="C133" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+    </row>
+    <row r="134" hidden="1" spans="1:9">
+      <c r="A134" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="9"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="4" t="s">
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="7"/>
+      <c r="I134" s="11"/>
+    </row>
+    <row r="135" hidden="1" spans="1:9">
+      <c r="A135" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" s="9"/>
-      <c r="I135" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="4" t="s">
+      <c r="D135" s="6"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="11"/>
+      <c r="I135" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" hidden="1" spans="1:9">
+      <c r="A136" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="9"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="4" t="s">
+      <c r="D136" s="6"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="7"/>
+      <c r="I136" s="11"/>
+    </row>
+    <row r="137" hidden="1" spans="1:9">
+      <c r="A137" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="4" t="s">
+      <c r="C137" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="10"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="7"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:9">
+      <c r="A138" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" s="7"/>
-      <c r="I138" s="9"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="8"/>
+      <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I139" s="9"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="4" t="s">
+      <c r="C139" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="10"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" s="11"/>
+    </row>
+    <row r="140" hidden="1" spans="1:9">
+      <c r="A140" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" s="6"/>
-      <c r="I140" s="9"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="8" t="s">
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="7"/>
+      <c r="I140" s="11"/>
+    </row>
+    <row r="141" hidden="1" spans="1:9">
+      <c r="A141" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I141">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="equal" val="Model Design"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="√"/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A3:I141">
       <sortCondition ref="A2"/>
     </sortState>

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20340" windowHeight="7950"/>
+    <workbookView windowWidth="20340" windowHeight="7950" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="3D Tools" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
     <t>SplutterFish</t>
   </si>
   <si>
-    <t>Render</t>
+    <t>Renderer</t>
   </si>
   <si>
     <t>Carrara Pro</t>
@@ -810,10 +810,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -843,9 +843,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,29 +918,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,9 +935,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -907,38 +946,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -958,23 +965,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,8 +978,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1021,6 +1021,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1033,7 +1081,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,19 +1171,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,133 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,17 +1233,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,11 +1277,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,6 +1307,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1301,41 +1330,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,139 +1344,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1831,11 +1831,11 @@
   <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A157" sqref="A157"/>
+      <selection pane="bottomRight" activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1847,7 +1847,7 @@
     <col min="5" max="5" width="11.7142857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.85714285714286" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.28571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.71428571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.2857142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1948,10 +1948,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
@@ -2218,7 +2218,9 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
@@ -2559,9 +2561,7 @@
       <c r="C37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
@@ -2976,12 +2976,8 @@
       <c r="E58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
         <v>14</v>
       </c>
@@ -3460,14 +3456,16 @@
       <c r="C84" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="D84" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="5" t="s">
@@ -4453,7 +4451,9 @@
       <c r="F136" s="7"/>
       <c r="G136" s="8"/>
       <c r="H136" s="7"/>
-      <c r="I136" s="8"/>
+      <c r="I136" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="9" t="s">
@@ -4654,7 +4654,9 @@
       <c r="F147" s="7"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
+      <c r="I147" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="5" t="s">
@@ -4848,7 +4850,9 @@
       <c r="F157" s="7"/>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
-      <c r="I157" s="8"/>
+      <c r="I157" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I157">

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -10,14 +10,14 @@
     <sheet name="3D Tools" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3D Tools'!$A$2:$I$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3D Tools'!$A$2:$I$168</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="280">
   <si>
     <t>Product Name</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>Unity3D</t>
+  </si>
+  <si>
+    <t>Frustum</t>
   </si>
 </sst>
 </file>
@@ -1285,13 +1288,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A168" sqref="A168"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1585,7 +1588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="7" t="s">
         <v>261</v>
       </c>
@@ -1933,7 +1936,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
@@ -2228,97 +2231,97 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1">
-      <c r="A48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>14</v>
-      </c>
+    <row r="48" spans="1:9">
+      <c r="A48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="6"/>
       <c r="I48" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
+      <c r="G49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="50" spans="1:9" hidden="1">
-      <c r="A50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="A50" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" hidden="1">
-      <c r="A52" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>99</v>
+      <c r="A52" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2327,34 +2330,36 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" hidden="1">
-      <c r="A53" s="7" t="s">
-        <v>100</v>
+    <row r="53" spans="1:9">
+      <c r="A53" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="54" spans="1:9" hidden="1">
-      <c r="A54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>29</v>
+      <c r="A54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2364,110 +2369,106 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" hidden="1">
-      <c r="A55" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="A55" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" hidden="1">
-      <c r="A56" s="3" t="s">
-        <v>103</v>
+      <c r="A56" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" hidden="1">
-      <c r="A57" s="7" t="s">
-        <v>105</v>
+      <c r="A57" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" hidden="1">
-      <c r="A58" s="7" t="s">
-        <v>107</v>
+      <c r="A58" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" hidden="1">
-      <c r="A59" s="7" t="s">
-        <v>109</v>
+      <c r="A59" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -2475,343 +2476,345 @@
     </row>
     <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" hidden="1">
-      <c r="A62" s="3" t="s">
-        <v>113</v>
+      <c r="A62" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" hidden="1">
-      <c r="A63" s="3" t="s">
-        <v>115</v>
+      <c r="A63" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" hidden="1">
-      <c r="A64" s="3" t="s">
-        <v>116</v>
+      <c r="A64" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" hidden="1">
-      <c r="A65" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="A65" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="I65" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="67" spans="1:9" hidden="1">
-      <c r="A67" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>123</v>
+      <c r="A67" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="I67" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" hidden="1">
-      <c r="A69" s="7" t="s">
-        <v>126</v>
+      <c r="A69" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="7" t="s">
-        <v>275</v>
+        <v>122</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" hidden="1">
-      <c r="A71" s="3" t="s">
-        <v>128</v>
+      <c r="A71" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D71" s="5"/>
-      <c r="E71" s="6"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="5"/>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" hidden="1">
-      <c r="A72" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>130</v>
+      <c r="A72" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" hidden="1">
-      <c r="A73" s="3" t="s">
-        <v>131</v>
+      <c r="A73" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D73" s="5"/>
-      <c r="E73" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D74" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" hidden="1">
+      <c r="A74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="5"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="6"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="5"/>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" hidden="1">
-      <c r="A76" s="7" t="s">
-        <v>135</v>
+      <c r="A76" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="5"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2823,351 +2826,351 @@
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" hidden="1">
-      <c r="A80" s="3" t="s">
-        <v>142</v>
+      <c r="A80" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="5"/>
+      <c r="G80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" hidden="1">
-      <c r="A82" s="3" t="s">
-        <v>145</v>
+      <c r="A82" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="5"/>
+      <c r="G82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="5"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="I84" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H85" s="5"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" hidden="1">
-      <c r="A86" s="7" t="s">
-        <v>150</v>
+      <c r="A86" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H86" s="6"/>
-      <c r="I86" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D87" s="5"/>
-      <c r="E87" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F88" s="5"/>
-      <c r="G88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" hidden="1">
-      <c r="A89" s="3" t="s">
-        <v>154</v>
+      <c r="A89" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="I89" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H90" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" hidden="1">
-      <c r="A91" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>49</v>
+      <c r="A91" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="5"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="7" t="s">
-        <v>265</v>
+    <row r="92" spans="1:9" hidden="1">
+      <c r="A92" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H92" s="6"/>
-      <c r="I92" s="5"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" hidden="1">
-      <c r="A93" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>161</v>
+      <c r="A93" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" hidden="1">
-      <c r="A94" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="A94" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="I94" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
       <c r="F95" s="5"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="5"/>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G97" s="6"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
+      <c r="I97" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>39</v>
@@ -3181,29 +3184,27 @@
     </row>
     <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D99" s="5"/>
-      <c r="E99" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="5"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="7" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>36</v>
@@ -3216,164 +3217,156 @@
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" hidden="1">
-      <c r="A101" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
+      <c r="A101" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="7" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" hidden="1">
-      <c r="A103" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A103" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" hidden="1">
-      <c r="A104" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="A104" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
-      <c r="I104" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
+      <c r="E105" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F105" s="5"/>
-      <c r="G105" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="5"/>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>182</v>
+        <v>263</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
+      <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" hidden="1">
-      <c r="A108" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="5"/>
+      <c r="A108" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="6"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="5"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3386,67 +3379,67 @@
     </row>
     <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G110" s="6"/>
       <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
+      <c r="I110" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="5"/>
+      <c r="G111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" hidden="1">
-      <c r="A112" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>27</v>
+      <c r="A112" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
-      <c r="I112" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>19</v>
@@ -3457,216 +3450,212 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
+      <c r="H113" s="5"/>
       <c r="I113" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D114" s="6"/>
+    <row r="114" spans="1:9" hidden="1">
+      <c r="A114" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" s="5"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="5"/>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D115" s="5"/>
-      <c r="E115" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="5"/>
+      <c r="G115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D116" s="5"/>
-      <c r="E116" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="5"/>
+      <c r="G116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="5"/>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" hidden="1">
-      <c r="A118" s="7" t="s">
-        <v>199</v>
+      <c r="A118" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G118" s="6"/>
       <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
+      <c r="I118" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="D119" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="120" spans="1:9" hidden="1">
       <c r="A120" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D120" s="5"/>
-      <c r="E120" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
-      <c r="H120" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
+      <c r="E121" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F121" s="5"/>
-      <c r="G121" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D122" s="5"/>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" hidden="1">
-      <c r="A123" s="7" t="s">
-        <v>206</v>
+      <c r="A123" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+      <c r="E123" s="6"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
+      <c r="G123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3678,546 +3667,550 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" hidden="1">
-      <c r="A125" s="7" t="s">
-        <v>210</v>
+      <c r="A125" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
+      <c r="E125" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F125" s="5"/>
-      <c r="G125" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" hidden="1">
       <c r="A126" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D126" s="5"/>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" hidden="1">
+      <c r="H126" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="6"/>
+      <c r="G127" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
+      <c r="I127" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="128" spans="1:9" hidden="1">
-      <c r="A128" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A128" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
-      <c r="I128" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" hidden="1">
-      <c r="A129" s="7" t="s">
-        <v>215</v>
+      <c r="A129" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F129" s="5"/>
-      <c r="G129" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" hidden="1">
       <c r="A130" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
-      <c r="I130" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" hidden="1">
       <c r="A131" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="6"/>
+      <c r="G131" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H131" s="6"/>
-      <c r="I131" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" hidden="1">
-      <c r="A132" s="3" t="s">
-        <v>218</v>
+      <c r="A132" s="7" t="s">
+        <v>210</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
-      <c r="G132" s="6"/>
+      <c r="G132" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
+    <row r="133" spans="1:9" hidden="1">
+      <c r="A133" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
+      <c r="I133" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1">
+      <c r="A134" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" hidden="1">
-      <c r="A135" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
+      <c r="A135" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="I135" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="136" spans="1:9" hidden="1">
       <c r="A136" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="6"/>
+      <c r="G136" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" hidden="1">
-      <c r="A137" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
+      <c r="A137" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
-      <c r="I137" s="5" t="s">
+      <c r="I137" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" hidden="1">
       <c r="A138" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
+      <c r="I138" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
       <c r="F139" s="5"/>
       <c r="G139" s="6"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9" hidden="1">
-      <c r="A140" s="7" t="s">
-        <v>230</v>
+      <c r="A140" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:9" hidden="1">
-      <c r="A141" s="3" t="s">
-        <v>232</v>
+      <c r="A141" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="D141" s="5"/>
-      <c r="E141" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="E141" s="5"/>
       <c r="F141" s="5"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="5"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:9">
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" s="7" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" s="3" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D144" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
+      <c r="I144" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>237</v>
+        <v>226</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="6"/>
-      <c r="E145" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" hidden="1">
-      <c r="A146" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D146" s="6"/>
+      <c r="A146" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
+      <c r="F147" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
+      <c r="H148" s="5"/>
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9" hidden="1">
-      <c r="A150" s="7" t="s">
-        <v>244</v>
+      <c r="A150" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D150" s="5"/>
-      <c r="E150" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E150" s="5"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
-      <c r="I150" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" hidden="1">
-      <c r="A151" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A151" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:9" hidden="1">
-      <c r="A152" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>27</v>
+      <c r="A152" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9" hidden="1">
-      <c r="A153" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D153" s="5"/>
+      <c r="A153" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" s="6"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="5"/>
+      <c r="F153" s="6"/>
       <c r="G153" s="6" t="s">
         <v>14</v>
       </c>
@@ -4225,92 +4218,88 @@
       <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9" hidden="1">
-      <c r="A154" s="3" t="s">
-        <v>250</v>
+      <c r="A154" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D154" s="5"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
     </row>
     <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="D155" s="5"/>
-      <c r="E155" s="6"/>
+      <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H155" s="5"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
     <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="6"/>
+        <v>243</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
     <row r="157" spans="1:9" hidden="1">
-      <c r="A157" s="3" t="s">
-        <v>254</v>
+      <c r="A157" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D157" s="5"/>
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4323,172 +4312,207 @@
     </row>
     <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
     <row r="160" spans="1:9" hidden="1">
-      <c r="A160" s="7" t="s">
-        <v>259</v>
+      <c r="A160" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="6"/>
+      <c r="G160" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="H160" s="6"/>
-      <c r="I160" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D161" s="6"/>
+      <c r="I160" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1">
+      <c r="A161" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="5"/>
       <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="7" t="s">
-        <v>221</v>
+      <c r="H162" s="5"/>
+      <c r="I162" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" hidden="1">
+      <c r="A163" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="E163" s="6"/>
       <c r="F163" s="5"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
+      <c r="G163" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="5"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="3" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
+      <c r="E165" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F165" s="5"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
+      <c r="H165" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
-      <c r="G166" s="6"/>
+    <row r="166" spans="1:9" hidden="1">
+      <c r="A166" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
+        <v>257</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
+    <row r="168" spans="1:9" hidden="1">
+      <c r="A168" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I167">
+  <autoFilter ref="A2:I168">
     <filterColumn colId="2">
       <filters>
-        <filter val="Game Engine"/>
+        <filter val="Generative Design"/>
       </filters>
     </filterColumn>
-    <sortState ref="A15:I167">
-      <sortCondition ref="A2:A162"/>
+    <sortState ref="A4:I168">
+      <sortCondition ref="A2:A167"/>
     </sortState>
   </autoFilter>
   <sortState ref="A3:I103">
@@ -4502,160 +4526,161 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A143" r:id="rId1"/>
-    <hyperlink ref="A164" r:id="rId2"/>
+    <hyperlink ref="A108" r:id="rId1"/>
+    <hyperlink ref="A149" r:id="rId2"/>
     <hyperlink ref="A35" r:id="rId3"/>
-    <hyperlink ref="A94" r:id="rId4"/>
-    <hyperlink ref="A98" r:id="rId5"/>
-    <hyperlink ref="A135" r:id="rId6"/>
+    <hyperlink ref="A98" r:id="rId4"/>
+    <hyperlink ref="A104" r:id="rId5"/>
+    <hyperlink ref="A142" r:id="rId6"/>
     <hyperlink ref="A16" r:id="rId7"/>
-    <hyperlink ref="A106" r:id="rId8"/>
+    <hyperlink ref="A112" r:id="rId8"/>
     <hyperlink ref="A42" r:id="rId9"/>
-    <hyperlink ref="A136" r:id="rId10"/>
-    <hyperlink ref="A67" r:id="rId11"/>
-    <hyperlink ref="A52" r:id="rId12"/>
-    <hyperlink ref="A149" r:id="rId13"/>
-    <hyperlink ref="A96" r:id="rId14"/>
-    <hyperlink ref="A65" r:id="rId15"/>
-    <hyperlink ref="A146" r:id="rId16"/>
-    <hyperlink ref="A97" r:id="rId17"/>
+    <hyperlink ref="A143" r:id="rId10"/>
+    <hyperlink ref="A70" r:id="rId11"/>
+    <hyperlink ref="A54" r:id="rId12"/>
+    <hyperlink ref="A156" r:id="rId13"/>
+    <hyperlink ref="A101" r:id="rId14"/>
+    <hyperlink ref="A68" r:id="rId15"/>
+    <hyperlink ref="A153" r:id="rId16"/>
+    <hyperlink ref="A102" r:id="rId17"/>
     <hyperlink ref="A28" r:id="rId18"/>
-    <hyperlink ref="A56" r:id="rId19"/>
-    <hyperlink ref="A50" r:id="rId20"/>
-    <hyperlink ref="A127" r:id="rId21"/>
-    <hyperlink ref="A95" r:id="rId22"/>
+    <hyperlink ref="A59" r:id="rId19"/>
+    <hyperlink ref="A52" r:id="rId20"/>
+    <hyperlink ref="A134" r:id="rId21"/>
+    <hyperlink ref="A99" r:id="rId22"/>
     <hyperlink ref="A17" r:id="rId23"/>
     <hyperlink ref="A29" r:id="rId24"/>
-    <hyperlink ref="A72" r:id="rId25"/>
-    <hyperlink ref="A84" r:id="rId26"/>
-    <hyperlink ref="A137" r:id="rId27"/>
-    <hyperlink ref="A121" r:id="rId28"/>
-    <hyperlink ref="A117" r:id="rId29"/>
-    <hyperlink ref="A64" r:id="rId30"/>
-    <hyperlink ref="A107" r:id="rId31"/>
-    <hyperlink ref="A54" r:id="rId32"/>
-    <hyperlink ref="A132" r:id="rId33"/>
+    <hyperlink ref="A75" r:id="rId25"/>
+    <hyperlink ref="A87" r:id="rId26"/>
+    <hyperlink ref="A144" r:id="rId27"/>
+    <hyperlink ref="A127" r:id="rId28"/>
+    <hyperlink ref="A123" r:id="rId29"/>
+    <hyperlink ref="A67" r:id="rId30"/>
+    <hyperlink ref="A113" r:id="rId31"/>
+    <hyperlink ref="A57" r:id="rId32"/>
+    <hyperlink ref="A139" r:id="rId33"/>
     <hyperlink ref="A10" r:id="rId34"/>
-    <hyperlink ref="A131" r:id="rId35"/>
+    <hyperlink ref="A138" r:id="rId35"/>
     <hyperlink ref="A23" r:id="rId36"/>
     <hyperlink ref="A39" r:id="rId37"/>
-    <hyperlink ref="A90" r:id="rId38"/>
-    <hyperlink ref="A148" r:id="rId39"/>
-    <hyperlink ref="A126" r:id="rId40"/>
-    <hyperlink ref="A112" r:id="rId41"/>
-    <hyperlink ref="A101" r:id="rId42"/>
-    <hyperlink ref="A109" r:id="rId43"/>
-    <hyperlink ref="A87" r:id="rId44"/>
-    <hyperlink ref="A81" r:id="rId45"/>
-    <hyperlink ref="A63" r:id="rId46"/>
-    <hyperlink ref="A55" r:id="rId47"/>
-    <hyperlink ref="A48" r:id="rId48"/>
+    <hyperlink ref="A94" r:id="rId38"/>
+    <hyperlink ref="A155" r:id="rId39"/>
+    <hyperlink ref="A133" r:id="rId40"/>
+    <hyperlink ref="A118" r:id="rId41"/>
+    <hyperlink ref="A107" r:id="rId42"/>
+    <hyperlink ref="A115" r:id="rId43"/>
+    <hyperlink ref="A90" r:id="rId44"/>
+    <hyperlink ref="A84" r:id="rId45"/>
+    <hyperlink ref="A66" r:id="rId46"/>
+    <hyperlink ref="A58" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
     <hyperlink ref="A14" r:id="rId49"/>
     <hyperlink ref="A9" r:id="rId50"/>
     <hyperlink ref="A12" r:id="rId51"/>
     <hyperlink ref="A47" r:id="rId52"/>
     <hyperlink ref="A38" r:id="rId53"/>
-    <hyperlink ref="A157" r:id="rId54"/>
-    <hyperlink ref="A119" r:id="rId55"/>
-    <hyperlink ref="A85" r:id="rId56"/>
-    <hyperlink ref="A89" r:id="rId57"/>
-    <hyperlink ref="A78" r:id="rId58"/>
+    <hyperlink ref="A165" r:id="rId54"/>
+    <hyperlink ref="A125" r:id="rId55"/>
+    <hyperlink ref="A88" r:id="rId56"/>
+    <hyperlink ref="A93" r:id="rId57"/>
+    <hyperlink ref="A81" r:id="rId58"/>
     <hyperlink ref="A18" r:id="rId59"/>
-    <hyperlink ref="A103" r:id="rId60"/>
+    <hyperlink ref="A109" r:id="rId60"/>
     <hyperlink ref="A22" r:id="rId61"/>
     <hyperlink ref="A36" r:id="rId62"/>
     <hyperlink ref="A27" r:id="rId63"/>
     <hyperlink ref="A20" r:id="rId64"/>
     <hyperlink ref="A30" r:id="rId65"/>
     <hyperlink ref="A45" r:id="rId66"/>
-    <hyperlink ref="A73" r:id="rId67"/>
+    <hyperlink ref="A76" r:id="rId67"/>
     <hyperlink ref="A25" r:id="rId68"/>
-    <hyperlink ref="A113" r:id="rId69"/>
-    <hyperlink ref="A120" r:id="rId70"/>
-    <hyperlink ref="A122" r:id="rId71"/>
-    <hyperlink ref="A128" r:id="rId72"/>
-    <hyperlink ref="A62" r:id="rId73"/>
+    <hyperlink ref="A119" r:id="rId69"/>
+    <hyperlink ref="A126" r:id="rId70"/>
+    <hyperlink ref="A129" r:id="rId71"/>
+    <hyperlink ref="A135" r:id="rId72"/>
+    <hyperlink ref="A65" r:id="rId73"/>
     <hyperlink ref="A43" r:id="rId74"/>
-    <hyperlink ref="A151" r:id="rId75"/>
-    <hyperlink ref="A110" r:id="rId76"/>
-    <hyperlink ref="A83" r:id="rId77"/>
-    <hyperlink ref="A88" r:id="rId78"/>
+    <hyperlink ref="A158" r:id="rId75"/>
+    <hyperlink ref="A116" r:id="rId76"/>
+    <hyperlink ref="A86" r:id="rId77"/>
+    <hyperlink ref="A92" r:id="rId78"/>
     <hyperlink ref="A6" r:id="rId79"/>
     <hyperlink ref="A8" r:id="rId80"/>
     <hyperlink ref="A34" r:id="rId81"/>
     <hyperlink ref="A32" r:id="rId82"/>
     <hyperlink ref="A46" r:id="rId83"/>
-    <hyperlink ref="A125" r:id="rId84"/>
-    <hyperlink ref="A129" r:id="rId85"/>
-    <hyperlink ref="A93" r:id="rId86"/>
-    <hyperlink ref="A145" r:id="rId87"/>
-    <hyperlink ref="A165" r:id="rId88" display="Unity Pro"/>
-    <hyperlink ref="A166" r:id="rId89"/>
-    <hyperlink ref="A144" r:id="rId90"/>
-    <hyperlink ref="A100" r:id="rId91"/>
-    <hyperlink ref="A114" r:id="rId92"/>
+    <hyperlink ref="A132" r:id="rId84"/>
+    <hyperlink ref="A136" r:id="rId85"/>
+    <hyperlink ref="A97" r:id="rId86"/>
+    <hyperlink ref="A152" r:id="rId87"/>
+    <hyperlink ref="A150" r:id="rId88" display="Unity Pro"/>
+    <hyperlink ref="A151" r:id="rId89"/>
+    <hyperlink ref="A120" r:id="rId90"/>
+    <hyperlink ref="A77" r:id="rId91"/>
+    <hyperlink ref="A96" r:id="rId92"/>
     <hyperlink ref="A15" r:id="rId93"/>
-    <hyperlink ref="A130" r:id="rId94"/>
-    <hyperlink ref="A104" r:id="rId95"/>
+    <hyperlink ref="A137" r:id="rId94"/>
+    <hyperlink ref="A110" r:id="rId95"/>
     <hyperlink ref="A40" r:id="rId96"/>
-    <hyperlink ref="A152" r:id="rId97"/>
-    <hyperlink ref="A99" r:id="rId98"/>
-    <hyperlink ref="A115" r:id="rId99"/>
-    <hyperlink ref="A116" r:id="rId100"/>
-    <hyperlink ref="A141" r:id="rId101"/>
-    <hyperlink ref="A108" r:id="rId102"/>
-    <hyperlink ref="A158" r:id="rId103"/>
-    <hyperlink ref="A162" r:id="rId104"/>
-    <hyperlink ref="A118" r:id="rId105"/>
-    <hyperlink ref="A105" r:id="rId106"/>
+    <hyperlink ref="A160" r:id="rId97"/>
+    <hyperlink ref="A105" r:id="rId98"/>
+    <hyperlink ref="A121" r:id="rId99"/>
+    <hyperlink ref="A122" r:id="rId100"/>
+    <hyperlink ref="A148" r:id="rId101"/>
+    <hyperlink ref="A114" r:id="rId102"/>
+    <hyperlink ref="A166" r:id="rId103"/>
+    <hyperlink ref="A140" r:id="rId104"/>
+    <hyperlink ref="A124" r:id="rId105"/>
+    <hyperlink ref="A111" r:id="rId106"/>
     <hyperlink ref="A7" r:id="rId107"/>
     <hyperlink ref="A13" r:id="rId108"/>
-    <hyperlink ref="A58" r:id="rId109"/>
-    <hyperlink ref="A77" r:id="rId110"/>
-    <hyperlink ref="A79" r:id="rId111"/>
-    <hyperlink ref="A138" r:id="rId112"/>
-    <hyperlink ref="A159" r:id="rId113"/>
+    <hyperlink ref="A61" r:id="rId109"/>
+    <hyperlink ref="A80" r:id="rId110"/>
+    <hyperlink ref="A82" r:id="rId111"/>
+    <hyperlink ref="A145" r:id="rId112"/>
+    <hyperlink ref="A167" r:id="rId113"/>
     <hyperlink ref="A24" r:id="rId114"/>
     <hyperlink ref="A37" r:id="rId115"/>
-    <hyperlink ref="A69" r:id="rId116"/>
+    <hyperlink ref="A72" r:id="rId116"/>
     <hyperlink ref="A44" r:id="rId117"/>
     <hyperlink ref="A19" r:id="rId118"/>
-    <hyperlink ref="A140" r:id="rId119"/>
-    <hyperlink ref="A76" r:id="rId120"/>
-    <hyperlink ref="A59" r:id="rId121"/>
+    <hyperlink ref="A147" r:id="rId119"/>
+    <hyperlink ref="A79" r:id="rId120"/>
+    <hyperlink ref="A62" r:id="rId121"/>
     <hyperlink ref="A5" r:id="rId122"/>
-    <hyperlink ref="A163" r:id="rId123"/>
-    <hyperlink ref="A147" r:id="rId124"/>
-    <hyperlink ref="A53" r:id="rId125"/>
-    <hyperlink ref="A60" r:id="rId126"/>
-    <hyperlink ref="A150" r:id="rId127"/>
-    <hyperlink ref="A61" r:id="rId128"/>
-    <hyperlink ref="A71" r:id="rId129"/>
-    <hyperlink ref="A75" r:id="rId130"/>
-    <hyperlink ref="A139" r:id="rId131"/>
-    <hyperlink ref="A80" r:id="rId132"/>
-    <hyperlink ref="A82" r:id="rId133"/>
-    <hyperlink ref="A49" r:id="rId134"/>
-    <hyperlink ref="A91" r:id="rId135"/>
-    <hyperlink ref="A111" r:id="rId136"/>
-    <hyperlink ref="A57" r:id="rId137"/>
+    <hyperlink ref="A141" r:id="rId123"/>
+    <hyperlink ref="A154" r:id="rId124"/>
+    <hyperlink ref="A56" r:id="rId125"/>
+    <hyperlink ref="A63" r:id="rId126"/>
+    <hyperlink ref="A157" r:id="rId127"/>
+    <hyperlink ref="A64" r:id="rId128"/>
+    <hyperlink ref="A74" r:id="rId129"/>
+    <hyperlink ref="A78" r:id="rId130"/>
+    <hyperlink ref="A146" r:id="rId131"/>
+    <hyperlink ref="A83" r:id="rId132"/>
+    <hyperlink ref="A85" r:id="rId133"/>
+    <hyperlink ref="A51" r:id="rId134"/>
+    <hyperlink ref="A95" r:id="rId135"/>
+    <hyperlink ref="A117" r:id="rId136"/>
+    <hyperlink ref="A60" r:id="rId137"/>
     <hyperlink ref="A21" r:id="rId138"/>
-    <hyperlink ref="A86" r:id="rId139"/>
-    <hyperlink ref="A156" r:id="rId140"/>
-    <hyperlink ref="A123" r:id="rId141"/>
-    <hyperlink ref="A124" r:id="rId142"/>
-    <hyperlink ref="A68" r:id="rId143"/>
-    <hyperlink ref="A160" r:id="rId144"/>
+    <hyperlink ref="A89" r:id="rId139"/>
+    <hyperlink ref="A164" r:id="rId140"/>
+    <hyperlink ref="A130" r:id="rId141"/>
+    <hyperlink ref="A131" r:id="rId142"/>
+    <hyperlink ref="A71" r:id="rId143"/>
+    <hyperlink ref="A168" r:id="rId144"/>
     <hyperlink ref="A31" r:id="rId145"/>
-    <hyperlink ref="A142" r:id="rId146"/>
-    <hyperlink ref="A92" r:id="rId147"/>
-    <hyperlink ref="A134" r:id="rId148"/>
-    <hyperlink ref="A167" r:id="rId149"/>
-    <hyperlink ref="A102" r:id="rId150"/>
-    <hyperlink ref="A161" r:id="rId151"/>
-    <hyperlink ref="A133" r:id="rId152"/>
-    <hyperlink ref="A70" r:id="rId153"/>
-    <hyperlink ref="A74" r:id="rId154"/>
+    <hyperlink ref="A106" r:id="rId146"/>
+    <hyperlink ref="A73" r:id="rId147"/>
+    <hyperlink ref="A103" r:id="rId148"/>
+    <hyperlink ref="A159" r:id="rId149"/>
+    <hyperlink ref="A91" r:id="rId150"/>
+    <hyperlink ref="A128" r:id="rId151"/>
+    <hyperlink ref="A100" r:id="rId152"/>
+    <hyperlink ref="A50" r:id="rId153"/>
+    <hyperlink ref="A55" r:id="rId154"/>
+    <hyperlink ref="A48" r:id="rId155"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -1895,15 +1895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J89" sqref="J89"/>
+      <selection pane="bottomRight" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1963,7 +1963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" hidden="1" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" hidden="1" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" hidden="1" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" hidden="1" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" hidden="1" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" hidden="1" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" hidden="1" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" hidden="1" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" hidden="1" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
@@ -2176,7 +2176,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" hidden="1" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" hidden="1" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" hidden="1" spans="1:9">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" hidden="1" spans="1:9">
       <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" hidden="1" spans="1:9">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" hidden="1" spans="1:9">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" hidden="1" spans="1:9">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" hidden="1" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" hidden="1" spans="1:9">
       <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" hidden="1" spans="1:9">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" hidden="1" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" hidden="1" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" hidden="1" spans="1:9">
       <c r="A26" s="5" t="s">
         <v>57</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" hidden="1" spans="1:9">
       <c r="A27" s="5" t="s">
         <v>58</v>
       </c>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" hidden="1" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>59</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" hidden="1" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>61</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" hidden="1" spans="1:9">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" hidden="1" spans="1:9">
       <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" hidden="1" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>67</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" hidden="1" spans="1:9">
       <c r="A33" s="9" t="s">
         <v>69</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" hidden="1" spans="1:9">
       <c r="A34" s="9" t="s">
         <v>71</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" hidden="1" spans="1:9">
       <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
@@ -2598,7 +2598,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" hidden="1" spans="1:9">
       <c r="A36" s="5" t="s">
         <v>76</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" hidden="1" spans="1:9">
       <c r="A37" s="9" t="s">
         <v>77</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" hidden="1" spans="1:9">
       <c r="A38" s="5" t="s">
         <v>79</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" hidden="1" spans="1:9">
       <c r="A39" s="5" t="s">
         <v>81</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" hidden="1" spans="1:9">
       <c r="A40" s="5" t="s">
         <v>83</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" hidden="1" spans="1:9">
       <c r="A41" s="5" t="s">
         <v>84</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" hidden="1" spans="1:9">
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" hidden="1" spans="1:9">
       <c r="A43" s="5" t="s">
         <v>87</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" hidden="1" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" hidden="1" spans="1:9">
       <c r="A45" s="5" t="s">
         <v>91</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" hidden="1" spans="1:9">
       <c r="A46" s="9" t="s">
         <v>93</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" hidden="1" spans="1:9">
       <c r="A47" s="5" t="s">
         <v>94</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" hidden="1" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>95</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" hidden="1" spans="1:9">
       <c r="A49" s="5" t="s">
         <v>96</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" hidden="1" spans="1:9">
       <c r="A50" s="9" t="s">
         <v>97</v>
       </c>
@@ -2905,7 +2905,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" hidden="1" spans="1:9">
       <c r="A51" s="5" t="s">
         <v>99</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" hidden="1" spans="1:9">
       <c r="A52" s="5" t="s">
         <v>101</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" hidden="1" spans="1:9">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" hidden="1" spans="1:9">
       <c r="A54" s="9" t="s">
         <v>104</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" hidden="1" spans="1:9">
       <c r="A55" s="9" t="s">
         <v>105</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" hidden="1" spans="1:9">
       <c r="A56" s="9" t="s">
         <v>106</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" hidden="1" spans="1:9">
       <c r="A57" s="5" t="s">
         <v>107</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" hidden="1" spans="1:9">
       <c r="A58" s="5" t="s">
         <v>108</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" hidden="1" spans="1:9">
       <c r="A59" s="5" t="s">
         <v>109</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" hidden="1" spans="1:9">
       <c r="A60" s="9" t="s">
         <v>111</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" hidden="1" spans="1:9">
       <c r="A61" s="9" t="s">
         <v>113</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" hidden="1" spans="1:9">
       <c r="A62" s="9" t="s">
         <v>115</v>
       </c>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" hidden="1" spans="1:9">
       <c r="A63" s="9" t="s">
         <v>116</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" hidden="1" spans="1:9">
       <c r="A64" s="9" t="s">
         <v>118</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" hidden="1" spans="1:9">
       <c r="A65" s="5" t="s">
         <v>119</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" hidden="1" spans="1:9">
       <c r="A66" s="5" t="s">
         <v>121</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" hidden="1" spans="1:9">
       <c r="A67" s="5" t="s">
         <v>122</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" hidden="1" spans="1:9">
       <c r="A68" s="9" t="s">
         <v>123</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" hidden="1" spans="1:9">
       <c r="A69" s="5" t="s">
         <v>126</v>
       </c>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" hidden="1" spans="1:9">
       <c r="A70" s="9" t="s">
         <v>128</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" hidden="1" spans="1:9">
       <c r="A71" s="9" t="s">
         <v>130</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" hidden="1" spans="1:9">
       <c r="A72" s="9" t="s">
         <v>132</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" hidden="1" spans="1:9">
       <c r="A73" s="9" t="s">
         <v>134</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="H73" s="8"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" hidden="1" spans="1:9">
       <c r="A74" s="5" t="s">
         <v>136</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" hidden="1" spans="1:9">
       <c r="A75" s="5" t="s">
         <v>137</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" hidden="1" spans="1:9">
       <c r="A76" s="5" t="s">
         <v>139</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" hidden="1" spans="1:9">
       <c r="A77" s="9" t="s">
         <v>140</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" hidden="1" spans="1:9">
       <c r="A78" s="5" t="s">
         <v>142</v>
       </c>
@@ -3434,7 +3434,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" hidden="1" spans="1:9">
       <c r="A80" s="9" t="s">
         <v>144</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" hidden="1" spans="1:9">
       <c r="A81" s="5" t="s">
         <v>146</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" hidden="1" spans="1:9">
       <c r="A82" s="9" t="s">
         <v>148</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" hidden="1" spans="1:9">
       <c r="A83" s="5" t="s">
         <v>150</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" hidden="1" spans="1:9">
       <c r="A84" s="5" t="s">
         <v>152</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" hidden="1" spans="1:9">
       <c r="A85" s="5" t="s">
         <v>153</v>
       </c>
@@ -3582,7 +3582,7 @@
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" hidden="1" spans="1:9">
       <c r="A88" s="5" t="s">
         <v>157</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="I88" s="8"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" hidden="1" spans="1:9">
       <c r="A89" s="9" t="s">
         <v>158</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" hidden="1" spans="1:9">
       <c r="A90" s="5" t="s">
         <v>160</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" hidden="1" spans="1:9">
       <c r="A91" s="9" t="s">
         <v>161</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" hidden="1" spans="1:9">
       <c r="A93" s="5" t="s">
         <v>163</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" hidden="1" spans="1:9">
       <c r="A94" s="5" t="s">
         <v>164</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" hidden="1" spans="1:9">
       <c r="A95" s="5" t="s">
         <v>166</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="H95" s="7"/>
       <c r="I95" s="8"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" hidden="1" spans="1:9">
       <c r="A96" s="9" t="s">
         <v>168</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" hidden="1" spans="1:9">
       <c r="A97" s="9" t="s">
         <v>170</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" hidden="1" spans="1:9">
       <c r="A100" s="9" t="s">
         <v>175</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" hidden="1" spans="1:9">
       <c r="A101" s="5" t="s">
         <v>176</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" hidden="1" spans="1:9">
       <c r="A102" s="9" t="s">
         <v>178</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" hidden="1" spans="1:9">
       <c r="A105" s="9" t="s">
         <v>184</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" hidden="1" spans="1:9">
       <c r="A106" s="9" t="s">
         <v>186</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" hidden="1" spans="1:9">
       <c r="A107" s="5" t="s">
         <v>188</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="H107" s="7"/>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" hidden="1" spans="1:9">
       <c r="A108" s="9" t="s">
         <v>190</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="H108" s="8"/>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" hidden="1" spans="1:9">
       <c r="A109" s="5" t="s">
         <v>192</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" hidden="1" spans="1:9">
       <c r="A110" s="9" t="s">
         <v>194</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" hidden="1" spans="1:9">
       <c r="A112" s="5" t="s">
         <v>196</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" hidden="1" spans="1:9">
       <c r="A113" s="5" t="s">
         <v>197</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" hidden="1" spans="1:9">
       <c r="A114" s="9" t="s">
         <v>199</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" hidden="1" spans="1:9">
       <c r="A115" s="5" t="s">
         <v>201</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" hidden="1" spans="1:9">
       <c r="A116" s="5" t="s">
         <v>203</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="H116" s="7"/>
       <c r="I116" s="8"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" hidden="1" spans="1:9">
       <c r="A117" s="5" t="s">
         <v>205</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" hidden="1" spans="1:9">
       <c r="A118" s="5" t="s">
         <v>206</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" hidden="1" spans="1:9">
       <c r="A119" s="5" t="s">
         <v>207</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="8"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" hidden="1" spans="1:9">
       <c r="A120" s="5" t="s">
         <v>209</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" hidden="1" spans="1:9">
       <c r="A121" s="5" t="s">
         <v>210</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" hidden="1" spans="1:9">
       <c r="A122" s="5" t="s">
         <v>212</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" hidden="1" spans="1:9">
       <c r="A123" s="5" t="s">
         <v>213</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="8"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" hidden="1" spans="1:9">
       <c r="A124" s="5" t="s">
         <v>214</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" hidden="1" spans="1:9">
       <c r="A125" s="5" t="s">
         <v>216</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="I125" s="8"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" hidden="1" spans="1:9">
       <c r="A126" s="9" t="s">
         <v>217</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" hidden="1" spans="1:9">
       <c r="A127" s="5" t="s">
         <v>218</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="I127" s="8"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" hidden="1" spans="1:9">
       <c r="A128" s="5" t="s">
         <v>219</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="I128" s="8"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" hidden="1" spans="1:9">
       <c r="A129" s="5" t="s">
         <v>221</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" hidden="1" spans="1:9">
       <c r="A130" s="9" t="s">
         <v>222</v>
       </c>
@@ -4393,7 +4393,7 @@
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" hidden="1" spans="1:9">
       <c r="A131" s="5" t="s">
         <v>224</v>
       </c>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="I131" s="7"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" hidden="1" spans="1:9">
       <c r="A132" s="9" t="s">
         <v>226</v>
       </c>
@@ -4450,7 +4450,7 @@
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" hidden="1" spans="1:9">
       <c r="A134" s="9" t="s">
         <v>230</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" hidden="1" spans="1:9">
       <c r="A135" s="5" t="s">
         <v>231</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" hidden="1" spans="1:9">
       <c r="A136" s="5" t="s">
         <v>232</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" hidden="1" spans="1:9">
       <c r="A137" s="5" t="s">
         <v>233</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" hidden="1" spans="1:9">
       <c r="A138" s="9" t="s">
         <v>235</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" hidden="1" spans="1:9">
       <c r="A139" s="9" t="s">
         <v>236</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" hidden="1" spans="1:9">
       <c r="A140" s="9" t="s">
         <v>237</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" hidden="1" spans="1:9">
       <c r="A141" s="5" t="s">
         <v>238</v>
       </c>
@@ -4606,7 +4606,7 @@
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" hidden="1" spans="1:9">
       <c r="A142" s="5" t="s">
         <v>239</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" hidden="1" spans="1:9">
       <c r="A143" s="9" t="s">
         <v>241</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" hidden="1" spans="1:9">
       <c r="A144" s="9" t="s">
         <v>242</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" hidden="1" spans="1:9">
       <c r="A145" s="9" t="s">
         <v>243</v>
       </c>
@@ -4674,7 +4674,7 @@
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" hidden="1" spans="1:9">
       <c r="A146" s="5" t="s">
         <v>245</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" hidden="1" spans="1:9">
       <c r="A147" s="9" t="s">
         <v>246</v>
       </c>
@@ -4714,7 +4714,7 @@
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" hidden="1" spans="1:9">
       <c r="A148" s="5" t="s">
         <v>248</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" hidden="1" spans="1:9">
       <c r="A149" s="9" t="s">
         <v>250</v>
       </c>
@@ -4754,7 +4754,7 @@
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" hidden="1" spans="1:9">
       <c r="A150" s="5" t="s">
         <v>252</v>
       </c>
@@ -4773,7 +4773,7 @@
       <c r="H150" s="7"/>
       <c r="I150" s="8"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" hidden="1" spans="1:9">
       <c r="A151" s="9" t="s">
         <v>253</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" hidden="1" spans="1:9">
       <c r="A152" s="5" t="s">
         <v>254</v>
       </c>
@@ -4807,7 +4807,7 @@
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" hidden="1" spans="1:9">
       <c r="A153" s="9" t="s">
         <v>256</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" hidden="1" spans="1:9">
       <c r="A154" s="9" t="s">
         <v>258</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" hidden="1" spans="1:9">
       <c r="A156" s="9" t="s">
         <v>261</v>
       </c>
@@ -4881,7 +4881,7 @@
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" hidden="1" spans="1:9">
       <c r="A157" s="5" t="s">
         <v>263</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" hidden="1" spans="1:9">
       <c r="A159" s="9" t="s">
         <v>265</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" hidden="1" spans="1:9">
       <c r="A161" s="9" t="s">
         <v>269</v>
       </c>
@@ -4974,7 +4974,7 @@
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" hidden="1" spans="1:9">
       <c r="A162" s="5" t="s">
         <v>270</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" hidden="1" spans="1:9">
       <c r="A164" s="5" t="s">
         <v>272</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" hidden="1" spans="1:9">
       <c r="A165" s="5" t="s">
         <v>274</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="H165" s="7"/>
       <c r="I165" s="8"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" hidden="1" spans="1:9">
       <c r="A166" s="9" t="s">
         <v>275</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" hidden="1" spans="1:9">
       <c r="A167" s="5" t="s">
         <v>276</v>
       </c>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="I167" s="8"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" hidden="1" spans="1:9">
       <c r="A168" s="5" t="s">
         <v>277</v>
       </c>
@@ -5111,7 +5111,7 @@
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" hidden="1" spans="1:9">
       <c r="A169" s="9" t="s">
         <v>279</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" hidden="1" spans="1:9">
       <c r="A170" s="9" t="s">
         <v>281</v>
       </c>
@@ -5153,6 +5153,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:I170">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Mesh Editor"/>
+        <filter val="Mesh Viewer"/>
+        <filter val="Mesh Library"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A3:I170">
       <sortCondition ref="A2"/>
     </sortState>

--- a/docs/products/3dtools.xlsx
+++ b/docs/products/3dtools.xlsx
@@ -10,14 +10,14 @@
     <sheet name="3D Tools" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3D Tools'!$A$2:$I$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3D Tools'!$A$2:$I$172</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284">
   <si>
     <t>Product Name</t>
   </si>
@@ -448,121 +448,154 @@
     <t>LuxRender</t>
   </si>
   <si>
+    <t>CloudCompare</t>
+  </si>
+  <si>
+    <t>Makerbot Print</t>
+  </si>
+  <si>
+    <t>MakerBot</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Foundry</t>
+  </si>
+  <si>
+    <t>MatterControl</t>
+  </si>
+  <si>
+    <t>MatterHackers</t>
+  </si>
+  <si>
+    <t>Maxwell Render</t>
+  </si>
+  <si>
+    <t>Next Limit</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>mental ray</t>
+  </si>
+  <si>
     <t>MakePrintable</t>
   </si>
   <si>
-    <t>Makerbot Print</t>
-  </si>
-  <si>
-    <t>MakerBot</t>
-  </si>
-  <si>
-    <t>Mari</t>
-  </si>
-  <si>
-    <t>Foundry</t>
-  </si>
-  <si>
-    <t>MatterControl</t>
-  </si>
-  <si>
-    <t>MatterHackers</t>
-  </si>
-  <si>
-    <t>Maxwell Render</t>
-  </si>
-  <si>
-    <t>Next Limit</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>mental ray</t>
-  </si>
-  <si>
     <t>MeshLab</t>
   </si>
   <si>
     <t>Visual Computing Laboratory</t>
   </si>
   <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>Moment of Inspiration</t>
+  </si>
+  <si>
+    <t>Triple Squid Software Design</t>
+  </si>
+  <si>
+    <t>Mudbox</t>
+  </si>
+  <si>
+    <t>NeoAxis</t>
+  </si>
+  <si>
     <t>Meshmixer</t>
   </si>
   <si>
-    <t>Modo</t>
-  </si>
-  <si>
-    <t>Moment of Inspiration</t>
-  </si>
-  <si>
-    <t>Triple Squid Software Design</t>
-  </si>
-  <si>
-    <t>Mudbox</t>
-  </si>
-  <si>
-    <t>NeoAxis</t>
+    <t>Nuke Studio</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>Siemens PLM</t>
+  </si>
+  <si>
+    <t>OctaneRender</t>
+  </si>
+  <si>
+    <t>OTOY</t>
+  </si>
+  <si>
+    <t>OGRE</t>
+  </si>
+  <si>
+    <t>Torus Knot Software</t>
+  </si>
+  <si>
+    <t>OnShape</t>
   </si>
   <si>
     <t>Netfabb</t>
   </si>
   <si>
-    <t>Nuke Studio</t>
-  </si>
-  <si>
-    <t>NX</t>
-  </si>
-  <si>
-    <t>Siemens PLM</t>
-  </si>
-  <si>
-    <t>OctaneRender</t>
-  </si>
-  <si>
-    <t>OTOY</t>
-  </si>
-  <si>
-    <t>OGRE</t>
-  </si>
-  <si>
-    <t>Torus Knot Software</t>
-  </si>
-  <si>
-    <t>OnShape</t>
-  </si>
-  <si>
     <t>OpenFlipper</t>
   </si>
   <si>
     <t>RWTH-Aachen University</t>
   </si>
   <si>
+    <t>OSG.JS</t>
+  </si>
+  <si>
+    <t>P3D.in</t>
+  </si>
+  <si>
+    <t>Global Scanning Denmark</t>
+  </si>
+  <si>
+    <t>Panda 3D</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
     <t>OpenMesh</t>
   </si>
   <si>
     <t>Mesh Library</t>
   </si>
   <si>
-    <t>OSG.JS</t>
-  </si>
-  <si>
-    <t>P3D.in</t>
-  </si>
-  <si>
-    <t>Global Scanning Denmark</t>
-  </si>
-  <si>
-    <t>Panda 3D</t>
-  </si>
-  <si>
-    <t>Carnegie Mellon University</t>
-  </si>
-  <si>
     <t>ParaView</t>
   </si>
   <si>
-    <t>Mesh Viewer</t>
+    <t>Phaser</t>
+  </si>
+  <si>
+    <t>Photon Storm</t>
+  </si>
+  <si>
+    <t>PhiloGL</t>
+  </si>
+  <si>
+    <t>Sencha</t>
+  </si>
+  <si>
+    <t>Photoscan</t>
+  </si>
+  <si>
+    <t>Agisoft</t>
+  </si>
+  <si>
+    <t>Pixijs</t>
+  </si>
+  <si>
+    <t>Goodboy</t>
+  </si>
+  <si>
+    <t>PIXLR</t>
+  </si>
+  <si>
+    <t>Image Editor</t>
+  </si>
+  <si>
+    <t>PlayCanvas</t>
   </si>
   <si>
     <t>PCL</t>
@@ -571,136 +604,190 @@
     <t>PointClouds</t>
   </si>
   <si>
-    <t>Phaser</t>
-  </si>
-  <si>
-    <t>Photon Storm</t>
-  </si>
-  <si>
-    <t>PhiloGL</t>
-  </si>
-  <si>
-    <t>Sencha</t>
-  </si>
-  <si>
-    <t>Photoscan</t>
-  </si>
-  <si>
-    <t>Agisoft</t>
-  </si>
-  <si>
-    <t>Pixijs</t>
-  </si>
-  <si>
-    <t>Goodboy</t>
-  </si>
-  <si>
-    <t>PIXLR</t>
-  </si>
-  <si>
-    <t>Image Editor</t>
-  </si>
-  <si>
-    <t>PlayCanvas</t>
+    <t>PowerShape</t>
+  </si>
+  <si>
+    <t>PreForm</t>
+  </si>
+  <si>
+    <t>FormLab</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Processing Foundation</t>
+  </si>
+  <si>
+    <t>PTC Creo</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>RealityCapture</t>
+  </si>
+  <si>
+    <t>CapturingReality</t>
+  </si>
+  <si>
+    <t>Recap</t>
+  </si>
+  <si>
+    <t>Remake</t>
+  </si>
+  <si>
+    <t>RenderMan</t>
+  </si>
+  <si>
+    <t>Pixologic</t>
+  </si>
+  <si>
+    <t>Revit</t>
+  </si>
+  <si>
+    <t>Rhino</t>
+  </si>
+  <si>
+    <t>Robert McNeel &amp; Associates</t>
+  </si>
+  <si>
+    <t>Scaleform</t>
+  </si>
+  <si>
+    <t>Scandy</t>
+  </si>
+  <si>
+    <t>Scann3D</t>
+  </si>
+  <si>
+    <t>SmartMobileVision</t>
+  </si>
+  <si>
+    <t>Sculpt</t>
+  </si>
+  <si>
+    <t>Sculpteo</t>
+  </si>
+  <si>
+    <t>Sculptris</t>
+  </si>
+  <si>
+    <t>Shade 3D Pro</t>
+  </si>
+  <si>
+    <t>Shade 3D</t>
+  </si>
+  <si>
+    <t>Shapeshifter</t>
+  </si>
+  <si>
+    <t>ShiVa</t>
+  </si>
+  <si>
+    <t>ShiVa Engine</t>
+  </si>
+  <si>
+    <t>Silo</t>
+  </si>
+  <si>
+    <t>NeverCenter</t>
+  </si>
+  <si>
+    <t>SimLab Composer</t>
+  </si>
+  <si>
+    <t>SimLab</t>
   </si>
   <si>
     <t>PolyWorks</t>
   </si>
   <si>
-    <t>PowerShape</t>
-  </si>
-  <si>
-    <t>PreForm</t>
-  </si>
-  <si>
-    <t>FormLab</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Processing Foundation</t>
-  </si>
-  <si>
-    <t>PTC Creo</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>RealityCapture</t>
-  </si>
-  <si>
-    <t>CapturingReality</t>
-  </si>
-  <si>
-    <t>Recap</t>
-  </si>
-  <si>
-    <t>Remake</t>
-  </si>
-  <si>
-    <t>RenderMan</t>
-  </si>
-  <si>
-    <t>Pixologic</t>
-  </si>
-  <si>
-    <t>Revit</t>
-  </si>
-  <si>
-    <t>Rhino</t>
-  </si>
-  <si>
-    <t>Robert McNeel &amp; Associates</t>
-  </si>
-  <si>
-    <t>Scaleform</t>
-  </si>
-  <si>
-    <t>Scandy</t>
-  </si>
-  <si>
-    <t>Scann3D</t>
-  </si>
-  <si>
-    <t>SmartMobileVision</t>
-  </si>
-  <si>
-    <t>Sculpt</t>
-  </si>
-  <si>
-    <t>Sculpteo</t>
-  </si>
-  <si>
-    <t>Sculptris</t>
-  </si>
-  <si>
-    <t>Shade 3D Pro</t>
-  </si>
-  <si>
-    <t>Shade 3D</t>
-  </si>
-  <si>
-    <t>Shapeshifter</t>
-  </si>
-  <si>
-    <t>ShiVa</t>
-  </si>
-  <si>
-    <t>ShiVa Engine</t>
-  </si>
-  <si>
-    <t>Silo</t>
-  </si>
-  <si>
-    <t>NeverCenter</t>
-  </si>
-  <si>
-    <t>SimLab Composer</t>
-  </si>
-  <si>
-    <t>SimLab</t>
+    <t>Simplify3D</t>
+  </si>
+  <si>
+    <t>SketchBook Pro</t>
+  </si>
+  <si>
+    <t>SketchFab</t>
+  </si>
+  <si>
+    <t>SketchUp</t>
+  </si>
+  <si>
+    <t>Trimble</t>
+  </si>
+  <si>
+    <t>Slic3r</t>
+  </si>
+  <si>
+    <t>SolidEdge 2D</t>
+  </si>
+  <si>
+    <t>Solidworks</t>
+  </si>
+  <si>
+    <t>Solidworks Visualization</t>
+  </si>
+  <si>
+    <t>Source SDK</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Stingray</t>
+  </si>
+  <si>
+    <t>Three.js</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>KnightLab</t>
+  </si>
+  <si>
+    <t>Tinkercad</t>
+  </si>
+  <si>
+    <t>Tinkerine Suite</t>
+  </si>
+  <si>
+    <t>Tinkerine Studios</t>
+  </si>
+  <si>
+    <t>TopSolid</t>
+  </si>
+  <si>
+    <t>Missler Software</t>
+  </si>
+  <si>
+    <t>Transform</t>
+  </si>
+  <si>
+    <t>Doodle3D</t>
+  </si>
+  <si>
+    <t>Trimensional</t>
+  </si>
+  <si>
+    <t>Turbulenz</t>
+  </si>
+  <si>
+    <t>Unity3D</t>
+  </si>
+  <si>
+    <t>Unity Technologies</t>
+  </si>
+  <si>
+    <t>Unreal Engine</t>
+  </si>
+  <si>
+    <t>Epic Games</t>
+  </si>
+  <si>
+    <t>Vectary</t>
   </si>
   <si>
     <t>simpleware</t>
@@ -709,91 +796,13 @@
     <t>Synopsys</t>
   </si>
   <si>
-    <t>Simplify3D</t>
-  </si>
-  <si>
-    <t>SketchBook Pro</t>
-  </si>
-  <si>
-    <t>SketchFab</t>
-  </si>
-  <si>
-    <t>SketchUp</t>
-  </si>
-  <si>
-    <t>Trimble</t>
-  </si>
-  <si>
-    <t>Slic3r</t>
-  </si>
-  <si>
-    <t>SolidEdge 2D</t>
-  </si>
-  <si>
-    <t>Solidworks</t>
-  </si>
-  <si>
-    <t>Solidworks Visualization</t>
-  </si>
-  <si>
-    <t>Source SDK</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>Stingray</t>
-  </si>
-  <si>
-    <t>Three.js</t>
-  </si>
-  <si>
-    <t>Timeline</t>
-  </si>
-  <si>
-    <t>KnightLab</t>
-  </si>
-  <si>
-    <t>Tinkercad</t>
-  </si>
-  <si>
-    <t>Tinkerine Suite</t>
-  </si>
-  <si>
-    <t>Tinkerine Studios</t>
-  </si>
-  <si>
-    <t>TopSolid</t>
-  </si>
-  <si>
-    <t>Missler Software</t>
-  </si>
-  <si>
-    <t>Transform</t>
-  </si>
-  <si>
-    <t>Doodle3D</t>
-  </si>
-  <si>
-    <t>Trimensional</t>
-  </si>
-  <si>
-    <t>Turbulenz</t>
-  </si>
-  <si>
-    <t>Unity3D</t>
-  </si>
-  <si>
-    <t>Unity Technologies</t>
-  </si>
-  <si>
-    <t>Unreal Engine</t>
-  </si>
-  <si>
-    <t>Epic Games</t>
-  </si>
-  <si>
-    <t>Vectary</t>
+    <t>V-Ray</t>
+  </si>
+  <si>
+    <t>Chaos Group</t>
+  </si>
+  <si>
+    <t>VRED Professional</t>
   </si>
   <si>
     <t>Visit</t>
@@ -802,22 +811,55 @@
     <t>Lawrence Livermore National Library</t>
   </si>
   <si>
-    <t>V-Ray</t>
-  </si>
-  <si>
-    <t>Chaos Group</t>
-  </si>
-  <si>
-    <t>VRED Professional</t>
+    <t>Vue</t>
+  </si>
+  <si>
+    <t>e-on software</t>
+  </si>
+  <si>
+    <t>VCG</t>
+  </si>
+  <si>
+    <t>Wimi5</t>
+  </si>
+  <si>
+    <t>Within</t>
   </si>
   <si>
     <t>VTK</t>
   </si>
   <si>
-    <t>Vue</t>
-  </si>
-  <si>
-    <t>e-on software</t>
+    <t>XYZMaker</t>
+  </si>
+  <si>
+    <t>XYZPrinting</t>
+  </si>
+  <si>
+    <t>XYZPhoto</t>
+  </si>
+  <si>
+    <t>YafaRay</t>
+  </si>
+  <si>
+    <t>Zbrush</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>3DFlow</t>
+  </si>
+  <si>
+    <t>Z-SUITE</t>
+  </si>
+  <si>
+    <t>Zortrax</t>
+  </si>
+  <si>
+    <t>ZW3D</t>
+  </si>
+  <si>
+    <t>ZWSOFT</t>
   </si>
   <si>
     <t xml:space="preserve">VXmodel </t>
@@ -826,46 +868,7 @@
     <t>Createform</t>
   </si>
   <si>
-    <t>Wimi5</t>
-  </si>
-  <si>
-    <t>Within</t>
-  </si>
-  <si>
     <t>Wrap</t>
-  </si>
-  <si>
-    <t>XYZMaker</t>
-  </si>
-  <si>
-    <t>XYZPrinting</t>
-  </si>
-  <si>
-    <t>XYZPhoto</t>
-  </si>
-  <si>
-    <t>YafaRay</t>
-  </si>
-  <si>
-    <t>Zbrush</t>
-  </si>
-  <si>
-    <t>Zephyr</t>
-  </si>
-  <si>
-    <t>3DFlow</t>
-  </si>
-  <si>
-    <t>Z-SUITE</t>
-  </si>
-  <si>
-    <t>Zortrax</t>
-  </si>
-  <si>
-    <t>ZW3D</t>
-  </si>
-  <si>
-    <t>ZWSOFT</t>
   </si>
 </sst>
 </file>
@@ -907,14 +910,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,7 +939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,29 +953,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -973,8 +960,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -996,6 +984,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1004,23 +1007,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,7 +1038,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,19 +1087,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,19 +1141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,13 +1159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,37 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,31 +1195,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,25 +1243,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,15 +1326,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1353,17 +1347,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,6 +1371,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1398,7 +1401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1416,130 +1419,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1896,14 +1899,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E171" sqref="E171"/>
+      <selection pane="bottomRight" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3416,7 +3419,7 @@
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B79" s="6" t="s">
@@ -3426,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="7"/>
       <c r="G79" s="8" t="s">
         <v>14</v>
@@ -3545,11 +3548,11 @@
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>22</v>
@@ -3565,10 +3568,10 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>22</v>
@@ -3779,7 +3782,7 @@
         <v>171</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>22</v>
@@ -3795,13 +3798,13 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="C99" s="6" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -3814,10 +3817,10 @@
     </row>
     <row r="100" hidden="1" spans="1:9">
       <c r="A100" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>39</v>
@@ -3831,10 +3834,10 @@
     </row>
     <row r="101" hidden="1" spans="1:9">
       <c r="A101" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>17</v>
@@ -3848,10 +3851,10 @@
     </row>
     <row r="102" hidden="1" spans="1:9">
       <c r="A102" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>36</v>
@@ -3863,19 +3866,19 @@
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="9" t="s">
+    <row r="103" hidden="1" spans="1:9">
+      <c r="A103" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="8" t="s">
         <v>14</v>
       </c>
@@ -3884,17 +3887,17 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
       <c r="G104" s="8" t="s">
         <v>14</v>
       </c>
@@ -3903,10 +3906,10 @@
     </row>
     <row r="105" hidden="1" spans="1:9">
       <c r="A105" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>36</v>
@@ -3920,10 +3923,10 @@
     </row>
     <row r="106" hidden="1" spans="1:9">
       <c r="A106" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>39</v>
@@ -3937,10 +3940,10 @@
     </row>
     <row r="107" hidden="1" spans="1:9">
       <c r="A107" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>127</v>
@@ -3956,10 +3959,10 @@
     </row>
     <row r="108" hidden="1" spans="1:9">
       <c r="A108" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>36</v>
@@ -3973,13 +3976,13 @@
     </row>
     <row r="109" hidden="1" spans="1:9">
       <c r="A109" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -3990,10 +3993,10 @@
     </row>
     <row r="110" hidden="1" spans="1:9">
       <c r="A110" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>36</v>
@@ -4005,15 +4008,15 @@
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>25</v>
+    <row r="111" hidden="1" spans="1:9">
+      <c r="A111" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -4026,7 +4029,7 @@
     </row>
     <row r="112" hidden="1" spans="1:9">
       <c r="A112" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>27</v>
@@ -4047,10 +4050,10 @@
     </row>
     <row r="113" hidden="1" spans="1:9">
       <c r="A113" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>13</v>
@@ -4066,10 +4069,10 @@
     </row>
     <row r="114" hidden="1" spans="1:9">
       <c r="A114" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>75</v>
@@ -4083,10 +4086,10 @@
     </row>
     <row r="115" hidden="1" spans="1:9">
       <c r="A115" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>19</v>
@@ -4104,10 +4107,10 @@
     </row>
     <row r="116" hidden="1" spans="1:9">
       <c r="A116" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>127</v>
@@ -4123,7 +4126,7 @@
     </row>
     <row r="117" hidden="1" spans="1:9">
       <c r="A117" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>27</v>
@@ -4142,7 +4145,7 @@
     </row>
     <row r="118" hidden="1" spans="1:9">
       <c r="A118" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>27</v>
@@ -4161,10 +4164,10 @@
     </row>
     <row r="119" hidden="1" spans="1:9">
       <c r="A119" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>49</v>
@@ -4178,7 +4181,7 @@
     </row>
     <row r="120" hidden="1" spans="1:9">
       <c r="A120" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>27</v>
@@ -4199,10 +4202,10 @@
     </row>
     <row r="121" hidden="1" spans="1:9">
       <c r="A121" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>19</v>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="122" hidden="1" spans="1:9">
       <c r="A122" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>27</v>
@@ -4237,10 +4240,10 @@
     </row>
     <row r="123" hidden="1" spans="1:9">
       <c r="A123" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>127</v>
@@ -4256,10 +4259,10 @@
     </row>
     <row r="124" hidden="1" spans="1:9">
       <c r="A124" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>127</v>
@@ -4275,7 +4278,7 @@
     </row>
     <row r="125" hidden="1" spans="1:9">
       <c r="A125" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>80</v>
@@ -4296,10 +4299,10 @@
     </row>
     <row r="126" hidden="1" spans="1:9">
       <c r="A126" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>13</v>
@@ -4315,10 +4318,10 @@
     </row>
     <row r="127" hidden="1" spans="1:9">
       <c r="A127" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>19</v>
@@ -4336,10 +4339,10 @@
     </row>
     <row r="128" hidden="1" spans="1:9">
       <c r="A128" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>19</v>
@@ -4357,7 +4360,7 @@
     </row>
     <row r="129" hidden="1" spans="1:9">
       <c r="A129" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>27</v>
@@ -4378,10 +4381,10 @@
     </row>
     <row r="130" hidden="1" spans="1:9">
       <c r="A130" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>36</v>
@@ -4395,10 +4398,10 @@
     </row>
     <row r="131" hidden="1" spans="1:9">
       <c r="A131" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>19</v>
@@ -4416,10 +4419,10 @@
     </row>
     <row r="132" hidden="1" spans="1:9">
       <c r="A132" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>30</v>
@@ -4432,11 +4435,11 @@
       <c r="I132" s="8"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="9" t="s">
-        <v>228</v>
+      <c r="A133" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>22</v>
@@ -4452,10 +4455,10 @@
     </row>
     <row r="134" hidden="1" spans="1:9">
       <c r="A134" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>13</v>
@@ -4471,7 +4474,7 @@
     </row>
     <row r="135" hidden="1" spans="1:9">
       <c r="A135" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>27</v>
@@ -4492,10 +4495,10 @@
     </row>
     <row r="136" hidden="1" spans="1:9">
       <c r="A136" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>17</v>
@@ -4509,10 +4512,10 @@
     </row>
     <row r="137" hidden="1" spans="1:9">
       <c r="A137" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>19</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="138" hidden="1" spans="1:9">
       <c r="A138" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>13</v>
@@ -4549,7 +4552,7 @@
     </row>
     <row r="139" hidden="1" spans="1:9">
       <c r="A139" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>165</v>
@@ -4570,7 +4573,7 @@
     </row>
     <row r="140" hidden="1" spans="1:9">
       <c r="A140" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>29</v>
@@ -4591,7 +4594,7 @@
     </row>
     <row r="141" hidden="1" spans="1:9">
       <c r="A141" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>29</v>
@@ -4608,10 +4611,10 @@
     </row>
     <row r="142" hidden="1" spans="1:9">
       <c r="A142" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>36</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="143" hidden="1" spans="1:9">
       <c r="A143" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>27</v>
@@ -4642,10 +4645,10 @@
     </row>
     <row r="144" hidden="1" spans="1:9">
       <c r="A144" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>39</v>
@@ -4659,10 +4662,10 @@
     </row>
     <row r="145" hidden="1" spans="1:9">
       <c r="A145" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>75</v>
@@ -4676,7 +4679,7 @@
     </row>
     <row r="146" hidden="1" spans="1:9">
       <c r="A146" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>27</v>
@@ -4697,10 +4700,10 @@
     </row>
     <row r="147" hidden="1" spans="1:9">
       <c r="A147" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>13</v>
@@ -4716,10 +4719,10 @@
     </row>
     <row r="148" hidden="1" spans="1:9">
       <c r="A148" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>19</v>
@@ -4737,10 +4740,10 @@
     </row>
     <row r="149" hidden="1" spans="1:9">
       <c r="A149" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>19</v>
@@ -4756,10 +4759,10 @@
     </row>
     <row r="150" hidden="1" spans="1:9">
       <c r="A150" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>127</v>
@@ -4775,10 +4778,10 @@
     </row>
     <row r="151" hidden="1" spans="1:9">
       <c r="A151" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>36</v>
@@ -4792,10 +4795,10 @@
     </row>
     <row r="152" hidden="1" spans="1:9">
       <c r="A152" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>36</v>
@@ -4809,10 +4812,10 @@
     </row>
     <row r="153" hidden="1" spans="1:9">
       <c r="A153" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>36</v>
@@ -4826,10 +4829,10 @@
     </row>
     <row r="154" hidden="1" spans="1:9">
       <c r="A154" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>19</v>
@@ -4847,17 +4850,17 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
+        <v>257</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
       <c r="G155" s="8" t="s">
         <v>14</v>
       </c>
@@ -4866,10 +4869,10 @@
     </row>
     <row r="156" hidden="1" spans="1:9">
       <c r="A156" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>49</v>
@@ -4883,7 +4886,7 @@
     </row>
     <row r="157" hidden="1" spans="1:9">
       <c r="A157" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>27</v>
@@ -4900,13 +4903,13 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
@@ -4919,10 +4922,10 @@
     </row>
     <row r="159" hidden="1" spans="1:9">
       <c r="A159" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>19</v>
@@ -4938,18 +4941,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" hidden="1" spans="1:9">
       <c r="A160" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
+      <c r="E160" s="8"/>
       <c r="F160" s="7"/>
       <c r="G160" s="8" t="s">
         <v>14</v>
@@ -4959,10 +4962,10 @@
     </row>
     <row r="161" hidden="1" spans="1:9">
       <c r="A161" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>36</v>
@@ -4976,7 +4979,7 @@
     </row>
     <row r="162" hidden="1" spans="1:9">
       <c r="A162" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>27</v>
@@ -4995,19 +4998,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D163" s="7"/>
+    <row r="163" hidden="1" spans="1:9">
+      <c r="A163" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="F163" s="7"/>
+      <c r="F163" s="8"/>
       <c r="G163" s="8" t="s">
         <v>14</v>
       </c>
@@ -5016,10 +5019,10 @@
     </row>
     <row r="164" hidden="1" spans="1:9">
       <c r="A164" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>19</v>
@@ -5037,10 +5040,10 @@
     </row>
     <row r="165" hidden="1" spans="1:9">
       <c r="A165" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>127</v>
@@ -5056,10 +5059,10 @@
     </row>
     <row r="166" hidden="1" spans="1:9">
       <c r="A166" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>49</v>
@@ -5073,10 +5076,10 @@
     </row>
     <row r="167" hidden="1" spans="1:9">
       <c r="A167" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>19</v>
@@ -5094,10 +5097,10 @@
     </row>
     <row r="168" hidden="1" spans="1:9">
       <c r="A168" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>127</v>
@@ -5113,10 +5116,10 @@
     </row>
     <row r="169" hidden="1" spans="1:9">
       <c r="A169" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>13</v>
@@ -5132,10 +5135,10 @@
     </row>
     <row r="170" hidden="1" spans="1:9">
       <c r="A170" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>19</v>
@@ -5151,16 +5154,52 @@
         <v>14</v>
       </c>
     </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" s="7"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:I170">
+  <autoFilter ref="A2:I172">
     <filterColumn colId="2">
-      <filters>
-        <filter val="Mesh Editor"/>
-        <filter val="Mesh Viewer"/>
-        <filter val="Mesh Library"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="Mesh Editor"/>
+      </customFilters>
     </filterColumn>
-    <sortState ref="A3:I170">
+    <sortState ref="A2:I172">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
@@ -5187,11 +5226,11 @@
     <hyperlink ref="A145" r:id="rId10" display="Timeline"/>
     <hyperlink ref="A70" r:id="rId11" display="JointJS"/>
     <hyperlink ref="A54" r:id="rId12" display="Heatmap.js"/>
-    <hyperlink ref="A158" r:id="rId13" display="VTK"/>
-    <hyperlink ref="A103" r:id="rId14" display="ParaView"/>
+    <hyperlink ref="A163" r:id="rId13" display="VTK"/>
+    <hyperlink ref="A104" r:id="rId14" display="ParaView"/>
     <hyperlink ref="A68" r:id="rId15" display="ITK"/>
-    <hyperlink ref="A155" r:id="rId16" display="Visit"/>
-    <hyperlink ref="A104" r:id="rId17" display="PCL"/>
+    <hyperlink ref="A158" r:id="rId16" display="Visit"/>
+    <hyperlink ref="A111" r:id="rId17" display="PCL"/>
     <hyperlink ref="A28" r:id="rId18" display="Cl3ver"/>
     <hyperlink ref="A59" r:id="rId19" display="HOOPS"/>
     <hyperlink ref="A52" r:id="rId20" display="GrabCAD"/>
@@ -5200,7 +5239,7 @@
     <hyperlink ref="A17" r:id="rId23" display="Blend4Web"/>
     <hyperlink ref="A29" r:id="rId24" display="Clara.io"/>
     <hyperlink ref="A75" r:id="rId25" display="Lagoa"/>
-    <hyperlink ref="A87" r:id="rId26" display="Meshmixer"/>
+    <hyperlink ref="A92" r:id="rId26" display="Meshmixer"/>
     <hyperlink ref="A146" r:id="rId27" display="Tinkercad"/>
     <hyperlink ref="A129" r:id="rId28" display="Shapeshifter"/>
     <hyperlink ref="A125" r:id="rId29" display="Sculpt"/>
@@ -5234,7 +5273,7 @@
     <hyperlink ref="A93" r:id="rId57" display="Nuke Studio"/>
     <hyperlink ref="A81" r:id="rId58" display="Mari"/>
     <hyperlink ref="A18" r:id="rId59" display="Blender"/>
-    <hyperlink ref="A111" r:id="rId60" display="PolyWorks"/>
+    <hyperlink ref="A133" r:id="rId60" display="PolyWorks"/>
     <hyperlink ref="A22" r:id="rId61" display="Carrara Pro"/>
     <hyperlink ref="A36" r:id="rId62" display="DAZ Studio Pro"/>
     <hyperlink ref="A27" r:id="rId63" display="Cinema 4D Studio"/>
@@ -5249,10 +5288,10 @@
     <hyperlink ref="A137" r:id="rId72" display="SketchUp"/>
     <hyperlink ref="A65" r:id="rId73" display="Inspire"/>
     <hyperlink ref="A43" r:id="rId74" display="Evolve"/>
-    <hyperlink ref="A160" r:id="rId75" display="VXmodel "/>
+    <hyperlink ref="A171" r:id="rId75" display="VXmodel "/>
     <hyperlink ref="A118" r:id="rId76" display="Remake"/>
-    <hyperlink ref="A86" r:id="rId77" display="MeshLab"/>
-    <hyperlink ref="A92" r:id="rId78" display="Netfabb"/>
+    <hyperlink ref="A87" r:id="rId77" display="MeshLab"/>
+    <hyperlink ref="A98" r:id="rId78" display="Netfabb"/>
     <hyperlink ref="A6" r:id="rId79" display="3D-matic"/>
     <hyperlink ref="A8" r:id="rId80" display="3DReshaper"/>
     <hyperlink ref="A34" r:id="rId81" display="Cura"/>
@@ -5294,7 +5333,7 @@
     <hyperlink ref="A44" r:id="rId117" display="Formide"/>
     <hyperlink ref="A19" r:id="rId118" display="BlocksCAD"/>
     <hyperlink ref="A149" r:id="rId119" display="Transform"/>
-    <hyperlink ref="A79" r:id="rId120" display="MakePrintable"/>
+    <hyperlink ref="A86" r:id="rId120" display="MakePrintable"/>
     <hyperlink ref="A62" r:id="rId121" display="Ime3D"/>
     <hyperlink ref="A5" r:id="rId122" display="3D-Coat"/>
     <hyperlink ref="A143" r:id="rId123" display="Stingray"/>
@@ -5316,7 +5355,7 @@
     <hyperlink ref="A89" r:id="rId139" display="Moment of Inspiration"/>
     <hyperlink ref="A166" r:id="rId140" display="YafaRay"/>
     <hyperlink ref="A132" r:id="rId141" display="SimLab Composer"/>
-    <hyperlink ref="A133" r:id="rId142" display="simpleware"/>
+    <hyperlink ref="A155" r:id="rId142" display="simpleware"/>
     <hyperlink ref="A71" r:id="rId143" display="KeyShot"/>
     <hyperlink ref="A170" r:id="rId144" display="ZW3D"/>
     <hyperlink ref="A31" r:id="rId145" display="Construct 2"/>
@@ -5330,6 +5369,8 @@
     <hyperlink ref="A50" r:id="rId153" display="GameGuru"/>
     <hyperlink ref="A55" r:id="rId154" display="HeroEngine"/>
     <hyperlink ref="A48" r:id="rId155" display="Frustum"/>
+    <hyperlink ref="A79" r:id="rId156" display="CloudCompare"/>
+    <hyperlink ref="A160" r:id="rId157" display="VCG"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
